--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CB4FBF-D5AE-4648-9CA0-003B656EA90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7F3EB-CD63-432C-9B0F-6FED8BE08D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="-2385" windowWidth="25800" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80280" yWindow="-6315" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -3282,7 +3282,7 @@
   <dimension ref="B1:AA68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3952,10 +3952,10 @@
   <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3978,8 +3978,8 @@
     <col min="16" max="16" width="19.36328125" style="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.81640625" style="33" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.90625" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6328125" style="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.6328125" style="33" customWidth="1"/>
     <col min="22" max="22" width="20.1796875" style="33" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.90625" style="33" customWidth="1"/>
@@ -4051,10 +4051,10 @@
       <c r="R1" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="34" t="s">
         <v>225</v>
       </c>
       <c r="U1" s="33" t="s">
@@ -4467,9 +4467,7 @@
       <c r="AB5" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="AC5" s="36">
-        <v>0</v>
-      </c>
+      <c r="AC5" s="36"/>
       <c r="AD5" s="36" t="s">
         <v>548</v>
       </c>
@@ -4535,7 +4533,7 @@
       <c r="S6" s="34">
         <v>43353</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U6" s="34" t="s">
@@ -4619,7 +4617,7 @@
       <c r="S7" s="34">
         <v>44601</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="T7" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U7" s="34"/>
@@ -5367,7 +5365,7 @@
       <c r="S15" s="34">
         <v>42278</v>
       </c>
-      <c r="T15" s="33" t="s">
+      <c r="T15" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U15" s="34" t="s">
@@ -5464,7 +5462,7 @@
       <c r="S16" s="34">
         <v>43763</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U16" s="34" t="s">
@@ -5656,7 +5654,7 @@
       <c r="S18" s="34">
         <v>44197</v>
       </c>
-      <c r="T18" s="33" t="s">
+      <c r="T18" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U18" s="34" t="s">
@@ -5751,7 +5749,7 @@
       <c r="S19" s="34">
         <v>40848</v>
       </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U19" s="34" t="s">
@@ -5848,7 +5846,7 @@
       <c r="S20" s="34">
         <v>40848</v>
       </c>
-      <c r="T20" s="33" t="s">
+      <c r="T20" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U20" s="34" t="s">
@@ -5943,7 +5941,7 @@
       <c r="S21" s="34">
         <v>44965</v>
       </c>
-      <c r="T21" s="33" t="s">
+      <c r="T21" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U21" s="34"/>
@@ -6018,7 +6016,7 @@
       <c r="S22" s="34">
         <v>44953</v>
       </c>
-      <c r="T22" s="33" t="s">
+      <c r="T22" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U22" s="34"/>
@@ -6192,7 +6190,7 @@
       <c r="S24" s="34">
         <v>40805</v>
       </c>
-      <c r="T24" s="33" t="s">
+      <c r="T24" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U24" s="34" t="s">
@@ -6384,7 +6382,7 @@
       <c r="S26" s="34">
         <v>42653</v>
       </c>
-      <c r="T26" s="33" t="s">
+      <c r="T26" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U26" s="34" t="s">
@@ -6481,7 +6479,7 @@
       <c r="S27" s="34">
         <v>43074</v>
       </c>
-      <c r="T27" s="33" t="s">
+      <c r="T27" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U27" s="34" t="s">
@@ -6578,7 +6576,7 @@
       <c r="S28" s="34">
         <v>42675</v>
       </c>
-      <c r="T28" s="33" t="s">
+      <c r="T28" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U28" s="34" t="s">
@@ -6675,7 +6673,7 @@
       <c r="S29" s="34">
         <v>42989</v>
       </c>
-      <c r="T29" s="33" t="s">
+      <c r="T29" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U29" s="34" t="s">
@@ -6772,7 +6770,7 @@
       <c r="S30" s="34">
         <v>44431</v>
       </c>
-      <c r="T30" s="33" t="s">
+      <c r="T30" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U30" s="34" t="s">
@@ -6869,7 +6867,7 @@
       <c r="S31" s="34">
         <v>44431</v>
       </c>
-      <c r="T31" s="33" t="s">
+      <c r="T31" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U31" s="34" t="s">
@@ -6966,7 +6964,7 @@
       <c r="S32" s="34">
         <v>44476</v>
       </c>
-      <c r="T32" s="33" t="s">
+      <c r="T32" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U32" s="34" t="s">
@@ -7634,7 +7632,7 @@
       <c r="S39" s="34">
         <v>41502</v>
       </c>
-      <c r="T39" s="33" t="s">
+      <c r="T39" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U39" s="34" t="s">
@@ -7733,7 +7731,7 @@
       <c r="S40" s="34">
         <v>43881</v>
       </c>
-      <c r="T40" s="33" t="s">
+      <c r="T40" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U40" s="34" t="s">
@@ -7922,7 +7920,7 @@
       <c r="S42" s="34">
         <v>41200</v>
       </c>
-      <c r="T42" s="33" t="s">
+      <c r="T42" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U42" s="34" t="s">
@@ -8118,7 +8116,7 @@
       <c r="S44" s="34">
         <v>43453</v>
       </c>
-      <c r="T44" s="33" t="s">
+      <c r="T44" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U44" s="34" t="s">
@@ -8316,7 +8314,7 @@
       <c r="S46" s="34">
         <v>44210</v>
       </c>
-      <c r="T46" s="33" t="s">
+      <c r="T46" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U46" s="34" t="s">
@@ -8411,7 +8409,7 @@
       <c r="S47" s="34">
         <v>39873</v>
       </c>
-      <c r="T47" s="33" t="s">
+      <c r="T47" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U47" s="34" t="s">
@@ -8601,7 +8599,7 @@
       <c r="S49" s="34">
         <v>39873</v>
       </c>
-      <c r="T49" s="33" t="s">
+      <c r="T49" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U49" s="34" t="s">
@@ -8696,7 +8694,7 @@
       <c r="S50" s="34">
         <v>42978</v>
       </c>
-      <c r="T50" s="33" t="s">
+      <c r="T50" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U50" s="34" t="s">
@@ -8981,7 +8979,7 @@
       <c r="S53" s="34">
         <v>41088</v>
       </c>
-      <c r="T53" s="33" t="s">
+      <c r="T53" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U53" s="34"/>
@@ -9058,7 +9056,7 @@
       <c r="S54" s="34">
         <v>43755</v>
       </c>
-      <c r="T54" s="33" t="s">
+      <c r="T54" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U54" s="34" t="s">
@@ -9155,7 +9153,7 @@
       <c r="S55" s="34">
         <v>42943</v>
       </c>
-      <c r="T55" s="33" t="s">
+      <c r="T55" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U55" s="34" t="s">
@@ -9254,7 +9252,7 @@
       <c r="S56" s="34">
         <v>42326</v>
       </c>
-      <c r="T56" s="33" t="s">
+      <c r="T56" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U56" s="34" t="s">
@@ -9543,7 +9541,7 @@
       <c r="S59" s="34">
         <v>43682</v>
       </c>
-      <c r="T59" s="33" t="s">
+      <c r="T59" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U59" s="34" t="s">
@@ -9638,7 +9636,7 @@
       <c r="S60" s="34">
         <v>43814</v>
       </c>
-      <c r="T60" s="33" t="s">
+      <c r="T60" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U60" s="34"/>
@@ -9788,7 +9786,7 @@
       <c r="S62" s="34">
         <v>43739</v>
       </c>
-      <c r="T62" s="33" t="s">
+      <c r="T62" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U62" s="34"/>
@@ -10037,7 +10035,7 @@
       <c r="S65" s="34">
         <v>43664</v>
       </c>
-      <c r="T65" s="33" t="s">
+      <c r="T65" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U65" s="34" t="s">
@@ -10419,7 +10417,7 @@
       <c r="S69" s="34">
         <v>44768</v>
       </c>
-      <c r="T69" s="33" t="s">
+      <c r="T69" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U69" s="34"/>
@@ -11705,7 +11703,7 @@
       <c r="S83" s="34">
         <v>41164</v>
       </c>
-      <c r="T83" s="33" t="s">
+      <c r="T83" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U83" s="34" t="s">
@@ -11800,7 +11798,7 @@
       <c r="S84" s="34">
         <v>41151</v>
       </c>
-      <c r="T84" s="33" t="s">
+      <c r="T84" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U84" s="34" t="s">
@@ -11897,7 +11895,7 @@
       <c r="S85" s="34">
         <v>40997</v>
       </c>
-      <c r="T85" s="33" t="s">
+      <c r="T85" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U85" s="34" t="s">
@@ -12261,7 +12259,7 @@
       <c r="S89" s="34">
         <v>43191</v>
       </c>
-      <c r="T89" s="33" t="s">
+      <c r="T89" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U89" s="34" t="s">
@@ -12358,7 +12356,7 @@
       <c r="S90" s="34">
         <v>40544</v>
       </c>
-      <c r="T90" s="33" t="s">
+      <c r="T90" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U90" s="34" t="s">
@@ -12552,7 +12550,7 @@
       <c r="S92" s="34">
         <v>40513</v>
       </c>
-      <c r="T92" s="33" t="s">
+      <c r="T92" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U92" s="34" t="s">
@@ -12649,7 +12647,7 @@
       <c r="S93" s="34">
         <v>40483</v>
       </c>
-      <c r="T93" s="33" t="s">
+      <c r="T93" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U93" s="34" t="s">
@@ -12746,7 +12744,7 @@
       <c r="S94" s="34">
         <v>41320</v>
       </c>
-      <c r="T94" s="33" t="s">
+      <c r="T94" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U94" s="34" t="s">
@@ -12841,7 +12839,7 @@
       <c r="S95" s="34">
         <v>44992</v>
       </c>
-      <c r="T95" s="33" t="s">
+      <c r="T95" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U95" s="34"/>
@@ -12918,7 +12916,7 @@
       <c r="S96" s="34">
         <v>40452</v>
       </c>
-      <c r="T96" s="33" t="s">
+      <c r="T96" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U96" s="34" t="s">
@@ -13015,7 +13013,7 @@
       <c r="S97" s="34">
         <v>40575</v>
       </c>
-      <c r="T97" s="33" t="s">
+      <c r="T97" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U97" s="34" t="s">
@@ -13112,7 +13110,7 @@
       <c r="S98" s="34">
         <v>43908</v>
       </c>
-      <c r="T98" s="33" t="s">
+      <c r="T98" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U98" s="34" t="s">
@@ -13209,7 +13207,7 @@
       <c r="S99" s="34">
         <v>41586</v>
       </c>
-      <c r="T99" s="33" t="s">
+      <c r="T99" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U99" s="34" t="s">
@@ -13306,7 +13304,7 @@
       <c r="S100" s="34">
         <v>42600</v>
       </c>
-      <c r="T100" s="33" t="s">
+      <c r="T100" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U100" s="34" t="s">
@@ -13405,7 +13403,7 @@
       <c r="S101" s="34">
         <v>42600</v>
       </c>
-      <c r="T101" s="33" t="s">
+      <c r="T101" s="34" t="s">
         <v>241</v>
       </c>
       <c r="U101" s="34" t="s">
@@ -13451,6 +13449,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92629D75-AF50-4CF1-8886-8ACB1A1D3784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B526AB-E2CC-4CF1-88B1-4ED099B805E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2385" windowWidth="25800" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-2385" windowWidth="25800" windowHeight="21150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,6 @@
     <sheet name="STHD_Prioritization" sheetId="6" r:id="rId4"/>
     <sheet name="prev_comanager_iptds" sheetId="4" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="node_count">#REF!</definedName>
-    <definedName name="pops">#REF!</definedName>
-    <definedName name="ryan">prev_comanager_iptds!$A$1:$Y$88</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -277,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3783" uniqueCount="857">
   <si>
     <t>site</t>
   </si>
@@ -2626,10 +2621,250 @@
     <t>AH</t>
   </si>
   <si>
-    <t>mpg</t>
-  </si>
-  <si>
-    <t>trt_popid</t>
+    <t>MPG</t>
+  </si>
+  <si>
+    <t>Monitoring Type</t>
+  </si>
+  <si>
+    <t>Population Determination (Figure 1)</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Budget/Responsibility</t>
+  </si>
+  <si>
+    <t>ESU_DPS</t>
+  </si>
+  <si>
+    <t>Snake River Spring/Summer-run Chinook Salmon ESU</t>
+  </si>
+  <si>
+    <t>Lookingglass Creek</t>
+  </si>
+  <si>
+    <t>GRLOO</t>
+  </si>
+  <si>
+    <t>Camas Creek</t>
+  </si>
+  <si>
+    <t>MFCAM</t>
+  </si>
+  <si>
+    <t>Chamberlain Creek</t>
+  </si>
+  <si>
+    <t>SRCHA</t>
+  </si>
+  <si>
+    <t>Loon Creek</t>
+  </si>
+  <si>
+    <t>MFLOO</t>
+  </si>
+  <si>
+    <t>Middle Fork Salmon River above Indian Creek</t>
+  </si>
+  <si>
+    <t>MFUMA</t>
+  </si>
+  <si>
+    <t>Middle Fork Salmon River below Indian Creek</t>
+  </si>
+  <si>
+    <t>MFLMA</t>
+  </si>
+  <si>
+    <t>Sulphur Creek</t>
+  </si>
+  <si>
+    <t>MFSUL</t>
+  </si>
+  <si>
+    <t>East Fork Salmon River</t>
+  </si>
+  <si>
+    <t>SREFS</t>
+  </si>
+  <si>
+    <t>SRPAH</t>
+  </si>
+  <si>
+    <t>Lower North Fork Clearwater</t>
+  </si>
+  <si>
+    <t>NCLMA</t>
+  </si>
+  <si>
+    <t>Meadow Creek</t>
+  </si>
+  <si>
+    <t>SEMEA</t>
+  </si>
+  <si>
+    <t>Moose Creek</t>
+  </si>
+  <si>
+    <t>SEMOO</t>
+  </si>
+  <si>
+    <t>Upper North Fork Clearwater</t>
+  </si>
+  <si>
+    <t>NCUMA</t>
+  </si>
+  <si>
+    <t>Upper Selway River</t>
+  </si>
+  <si>
+    <t>SEUMA</t>
+  </si>
+  <si>
+    <t>POP_NAME</t>
+  </si>
+  <si>
+    <t>Snake River Basin Steelhead DPS</t>
+  </si>
+  <si>
+    <t>Hells Canyon</t>
+  </si>
+  <si>
+    <t>CRNFC-s</t>
+  </si>
+  <si>
+    <t>SNHCT-s</t>
+  </si>
+  <si>
+    <t>SRCHA-s</t>
+  </si>
+  <si>
+    <t>SREFS-s</t>
+  </si>
+  <si>
+    <t>North Fork Clearwater River</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Extirpated</t>
+  </si>
+  <si>
+    <t>Functionally Extirpated</t>
+  </si>
+  <si>
+    <t>Unlisted</t>
+  </si>
+  <si>
+    <t>Extant</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Data Gap</t>
+  </si>
+  <si>
+    <t>Upgrade?</t>
+  </si>
+  <si>
+    <t>Budget/Responsibility?</t>
+  </si>
+  <si>
+    <t>Do not include in Biomark</t>
+  </si>
+  <si>
+    <t>high precision is not necessary b/c of TUC, and weir operation gives us another low precision method (doesn't cover all MaSAs) so IPTDS is redundant</t>
+  </si>
+  <si>
+    <t>Include in Biomark</t>
+  </si>
+  <si>
+    <t>Potlatch-consider upgrade; Lapwai - LAP; Big Canyon - Data Gap; Lawyer Creek - Data Gap; Lower SFCLW Tribs - Data Gap</t>
+  </si>
+  <si>
+    <t>LRL, LRU</t>
+  </si>
+  <si>
+    <t>LC1, LC2</t>
+  </si>
+  <si>
+    <t>Consider upgrading LC1</t>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
+  </si>
+  <si>
+    <t>SC1, SC2</t>
+  </si>
+  <si>
+    <t>Could support SC3, SC4 instead with CRA as back-up</t>
+  </si>
+  <si>
+    <t>Wenaha - WEN; Mud Creek - Data Gap</t>
+  </si>
+  <si>
+    <t>UGR, (UGS or CCU)</t>
+  </si>
+  <si>
+    <t>Consider upgrading URG</t>
+  </si>
+  <si>
+    <t>WR1, MR1, WR2</t>
+  </si>
+  <si>
+    <t>Consider upgrading WR1</t>
+  </si>
+  <si>
+    <t>IR1, IR2</t>
+  </si>
+  <si>
+    <t>Consider upgrading IR1</t>
+  </si>
+  <si>
+    <t>Canidate/increase and include in Biomark O&amp;M</t>
+  </si>
+  <si>
+    <t>Little Salmon - Data Gap</t>
+  </si>
+  <si>
+    <t>SFG, (KRS or EFSF)</t>
+  </si>
+  <si>
+    <t>TAY, Camas - Data Gap, Loon - Data Gap</t>
+  </si>
+  <si>
+    <t>Marsh Creek - MAR; Marble, Pistol, Rapid, Upper Middle, Bear Valley are Data Gaps</t>
+  </si>
+  <si>
+    <t>Split between MFSR pops is below Loon Creek</t>
+  </si>
+  <si>
+    <t>USE, USI</t>
+  </si>
+  <si>
+    <t>Consider upgrading/moving</t>
+  </si>
+  <si>
+    <t>Challis and EFSR - Data Gap</t>
+  </si>
+  <si>
+    <t>Consider upgrading</t>
+  </si>
+  <si>
+    <t>YFK VC2, Upper Salmon, Basin, Thompson - Data Gap</t>
+  </si>
+  <si>
+    <t>IPTDS w/in Steelhead MaSA (Figure 2)</t>
+  </si>
+  <si>
+    <t>IPTDS w/in Chinook MaSA (Figure 2)</t>
   </si>
 </sst>
 </file>
@@ -3289,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
   <dimension ref="B1:AA67"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4060,11 +4295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4105,11 +4340,11 @@
     <col min="34" max="34" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="33" t="s">
         <v>216</v>
       </c>
       <c r="C1" s="35" t="s">
@@ -4205,7 +4440,7 @@
       <c r="AG1" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="33" t="s">
         <v>221</v>
       </c>
     </row>
@@ -13685,20 +13920,791 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B48E5-B2D0-4B19-967E-72BE4D4B4F25}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.7265625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>776</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>797</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>753</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>752</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>798</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>751</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>755</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>761</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>762</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>760</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>757</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>758</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>785</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>787</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>790</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>795</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>794</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>765</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>736</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>737</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>763</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>764</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>783</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>782</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>724</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>611</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>726</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>800</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>799</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>802</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>801</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>803</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>808</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -13708,15 +14714,759 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175A1EF7-D6F6-40B5-8CC5-720EBF0869DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="18" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.81640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="129.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>747</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="H2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="H4" t="s">
+        <v>852</v>
+      </c>
+      <c r="K4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>740</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="H6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>749</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="H7" t="s">
+        <v>848</v>
+      </c>
+      <c r="K7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>756</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H9" t="s">
+        <v>850</v>
+      </c>
+      <c r="K9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>810</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H11" t="s">
+        <v>854</v>
+      </c>
+      <c r="K11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>810</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>810</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H13" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>810</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H14" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>810</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H15" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>810</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H16" t="s">
+        <v>832</v>
+      </c>
+      <c r="K16" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>810</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>810</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>810</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H19" t="s">
+        <v>835</v>
+      </c>
+      <c r="K19" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>810</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H20" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H21" t="s">
+        <v>838</v>
+      </c>
+      <c r="K21" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>810</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>810</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H23" t="s">
+        <v>840</v>
+      </c>
+      <c r="K23" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>810</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H24" t="s">
+        <v>842</v>
+      </c>
+      <c r="K24" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>811</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>844</v>
+      </c>
+      <c r="H25" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>810</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>827</v>
+      </c>
+      <c r="K26" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>810</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>822</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685183C5-B124-4235-BEA5-D74CBA0FC053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE867E92-5D30-4701-A585-2DEC981CC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="-2385" windowWidth="25800" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54600" yWindow="-2385" windowWidth="25800" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="prev_comanager_iptds" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3531,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
   <dimension ref="B1:AA67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4302,7 +4301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE867E92-5D30-4701-A585-2DEC981CC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CECE6D-8641-4892-9263-1148E60508DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54600" yWindow="-2385" windowWidth="25800" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-2385" windowWidth="32685" windowHeight="21150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
     <sheet name="SR_IPTDS_Sites" sheetId="3" r:id="rId2"/>
     <sheet name="CHNK_Prioritization" sheetId="5" r:id="rId3"/>
     <sheet name="STHD_Prioritization" sheetId="6" r:id="rId4"/>
-    <sheet name="prev_comanager_iptds" sheetId="4" r:id="rId5"/>
+    <sheet name="validation" sheetId="7" r:id="rId5"/>
+    <sheet name="prev_comanager_iptds" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="figure_1_outcomes">validation!$A$2:$A$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,19 +46,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AD1E88B1-2F92-43B6-B7DA-1FC5E172D563}</author>
     <author>tc={3D9FD2FA-9C88-48D2-BCB2-D2B9ED477202}</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{AD1E88B1-2F92-43B6-B7DA-1FC5E172D563}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Update if/when new map is created.</t>
-      </text>
-    </comment>
-    <comment ref="C64" authorId="1" shapeId="0" xr:uid="{3D9FD2FA-9C88-48D2-BCB2-D2B9ED477202}">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{3D9FD2FA-9C88-48D2-BCB2-D2B9ED477202}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,6 +62,263 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={49AD47D5-9532-4B79-A036-CA5347F3BDEE}</author>
+    <author>tc={FD6591EB-C611-4A2A-A881-1BD361364436}</author>
+    <author>tc={4C36CCDE-D95D-44DE-BAAB-9564D5F2204D}</author>
+    <author>tc={BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}</author>
+    <author>tc={A4989D90-3FBB-44C5-B529-67748B311857}</author>
+    <author>tc={E951751E-436D-4FC4-8D1E-998A01F12994}</author>
+    <author>tc={F1ED4CF2-BA0F-473A-B9DA-C0E601D9107C}</author>
+    <author>tc={E9EB6F23-B135-406A-93FB-B99330CCEC4B}</author>
+    <author>tc={3C5A1271-1E0B-4098-A41B-B7B655811E71}</author>
+    <author>tc={8013520A-1754-4B81-B622-B57205C1CB26}</author>
+    <author>tc={8E70B154-F4CA-43CA-9444-BF86A9DC2DE3}</author>
+    <author>tc={1CBF0AE6-896E-445A-892C-9DE9765FA6FF}</author>
+    <author>tc={0B852492-7DAC-4582-8F02-3A84082A6FD4}</author>
+    <author>tc={7AFA65D9-34FD-4747-9F3F-EC9E8753E9D6}</author>
+    <author>tc={F4329201-5706-4A87-B6C9-AC934D708772}</author>
+    <author>tc={A59B7D38-B5FA-4F99-81C9-2216A5E4B317}</author>
+    <author>tc={4EA8EC24-DA87-4C97-BF97-D24B2220400F}</author>
+    <author>tc={FEE3224C-11C6-4B9F-9B68-A9C14A001D03}</author>
+    <author>tc={47E3FB04-B0BC-475E-96B5-163EB72473FF}</author>
+    <author>tc={A9F6C9DF-40CA-433C-9246-04A2F3DA5054}</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{49AD47D5-9532-4B79-A036-CA5347F3BDEE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there an IPTDS in the population?</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{FD6591EB-C611-4A2A-A881-1BD361364436}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is it the only high-precision method in the population?</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{4C36CCDE-D95D-44DE-BAAB-9564D5F2204D}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Within the same MPG is there another pop with high-precision monitoring? </t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is a low-precision monitoring method possible?
+Reply:
+    Likely still in "beta" phase, but is effective population size (Ne or Nb) monitoring using juvenile samples a feasible and/or reasonable alternative?</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{A4989D90-3FBB-44C5-B529-67748B311857}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is the population only monitored with IPTDS?</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{E951751E-436D-4FC4-8D1E-998A01F12994}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is redundancy necessary?</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="6" shapeId="0" xr:uid="{F1ED4CF2-BA0F-473A-B9DA-C0E601D9107C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Natural and hatchery origin fish enumerated at the Sawtooth weir, correct?</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="7" shapeId="0" xr:uid="{E9EB6F23-B135-406A-93FB-B99330CCEC4B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="8" shapeId="0" xr:uid="{3C5A1271-1E0B-4098-A41B-B7B655811E71}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="9" shapeId="0" xr:uid="{8013520A-1754-4B81-B622-B57205C1CB26}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Natural and hatchery origin fish enumerated at the Pahsimeroi weir, correct?</t>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="10" shapeId="0" xr:uid="{8E70B154-F4CA-43CA-9444-BF86A9DC2DE3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="11" shapeId="0" xr:uid="{1CBF0AE6-896E-445A-892C-9DE9765FA6FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="12" shapeId="0" xr:uid="{0B852492-7DAC-4582-8F02-3A84082A6FD4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="13" shapeId="0" xr:uid="{7AFA65D9-34FD-4747-9F3F-EC9E8753E9D6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="14" shapeId="0" xr:uid="{F4329201-5706-4A87-B6C9-AC934D708772}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="15" shapeId="0" xr:uid="{A59B7D38-B5FA-4F99-81C9-2216A5E4B317}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Chamberlain is its own GSI reporting group, but estimate is at LGR, not to river mouth.
+Also has index redd counts.</t>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="16" shapeId="0" xr:uid="{4EA8EC24-DA87-4C97-BF97-D24B2220400F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Weir is often pulled due to high temperatures later in the run</t>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="17" shapeId="0" xr:uid="{FEE3224C-11C6-4B9F-9B68-A9C14A001D03}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A weir operated at Lookingglass Hatchery</t>
+      </text>
+    </comment>
+    <comment ref="F34" authorId="18" shapeId="0" xr:uid="{47E3FB04-B0BC-475E-96B5-163EB72473FF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="19" shapeId="0" xr:uid="{A9F6C9DF-40CA-433C-9246-04A2F3DA5054}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I believe index redd counts (Poole et al. 2022)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={264DB33D-DB76-4D11-BAC7-1447A8DF770C}</author>
+    <author>tc={C16EF1B5-F293-4008-BE58-99CDB784A610}</author>
+    <author>tc={37214CAF-E32D-423F-9F57-B1FF8880C16B}</author>
+    <author>tc={776D5156-CEE8-4C40-9EF5-7C3B3583492C}</author>
+    <author>tc={3E986C16-BA37-47A0-86A7-922092A7EA2A}</author>
+    <author>tc={27376549-F13C-4B8F-9CC7-AE915F1E312B}</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{264DB33D-DB76-4D11-BAC7-1447A8DF770C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is there an IPTDS in the population?</t>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{C16EF1B5-F293-4008-BE58-99CDB784A610}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is it the only high-precision method in the population?</t>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{37214CAF-E32D-423F-9F57-B1FF8880C16B}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Within the same MPG is there another pop with high-precision monitoring? </t>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{776D5156-CEE8-4C40-9EF5-7C3B3583492C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is a low-precision monitoring method possible?
+Reply:
+    Likely still in "beta" phase, but is effective population size (Ne or Nb) monitoring using juvenile samples a feasible and/or reasonable alternative?</t>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{3E986C16-BA37-47A0-86A7-922092A7EA2A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is the population only monitored with IPTDS?</t>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{27376549-F13C-4B8F-9CC7-AE915F1E312B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is redundancy necessary?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={43484BDD-BE13-4EF5-9F51-FF4EE38B3A82}</author>
@@ -272,7 +524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="906">
   <si>
     <t>site</t>
   </si>
@@ -2294,15 +2546,9 @@
     <t>longitude, decimal degrees</t>
   </si>
   <si>
-    <t>Snake River spring/summer Chinook salmon technical recovery team population</t>
-  </si>
-  <si>
     <t>percent coverage of the spring/summer Chinook salmon population's intrinsic potential</t>
   </si>
   <si>
-    <t>Snake River steelhead technical recovery team population</t>
-  </si>
-  <si>
     <t>percent coverage of the steelhead population's intrinsic potential</t>
   </si>
   <si>
@@ -2360,9 +2606,6 @@
     <t>general comments</t>
   </si>
   <si>
-    <t>Review and update metadata table below</t>
-  </si>
-  <si>
     <t>Catherine Creek Ladder/Weir</t>
   </si>
   <si>
@@ -2627,12 +2870,6 @@
     <t>Population Determination (Figure 1)</t>
   </si>
   <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
-    <t>Budget/Responsibility</t>
-  </si>
-  <si>
     <t>ESU_DPS</t>
   </si>
   <si>
@@ -2825,9 +3062,6 @@
     <t>Consider upgrading IR1</t>
   </si>
   <si>
-    <t>Canidate/increase and include in Biomark O&amp;M</t>
-  </si>
-  <si>
     <t>Little Salmon - Data Gap</t>
   </si>
   <si>
@@ -2861,9 +3095,6 @@
     <t>IPTDS w/in Steelhead MaSA (Figure 2)</t>
   </si>
   <si>
-    <t>IPTDS w/in Chinook MaSA (Figure 2)</t>
-  </si>
-  <si>
     <t>Population is a candidate for IPTDS in Biomark O&amp;M</t>
   </si>
   <si>
@@ -2871,13 +3102,197 @@
   </si>
   <si>
     <t>https://nptfisheries.shinyapps.io/sr-iptds/</t>
+  </si>
+  <si>
+    <t>Figure 1 Outcomes</t>
+  </si>
+  <si>
+    <t>Consider removing IPTDS from Biomark O&amp;M; keep other monitoring method</t>
+  </si>
+  <si>
+    <t>Redundancy Necessary?</t>
+  </si>
+  <si>
+    <t>Low-Precision Possible?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Candidate/increase and include in Biomark O&amp;M</t>
+  </si>
+  <si>
+    <t>old Population Determination (Figure 1)</t>
+  </si>
+  <si>
+    <t>Monitored MaSA</t>
+  </si>
+  <si>
+    <t>Unmonitored MaSA</t>
+  </si>
+  <si>
+    <t>Valley (VC2), Yankee Fork (YFK)</t>
+  </si>
+  <si>
+    <t>Upper Salmon, Basin, Thompson</t>
+  </si>
+  <si>
+    <t>East Fork, Challis</t>
+  </si>
+  <si>
+    <t>Lower Pahsimeroi, Patterson, Pahsimeroi</t>
+  </si>
+  <si>
+    <t>Upper Lemhi (LRW), Hayden (HYC), Lower Lemhi (LLR)</t>
+  </si>
+  <si>
+    <t>North Fork Salmon (NFS)</t>
+  </si>
+  <si>
+    <t>Tucannon (LTR)</t>
+  </si>
+  <si>
+    <t>Upper Panther (PCA)</t>
+  </si>
+  <si>
+    <t>Upper Secesh (ZEN)</t>
+  </si>
+  <si>
+    <t>Chamberlain</t>
+  </si>
+  <si>
+    <t>Marsh (MAR), Lower Bear (BRC)</t>
+  </si>
+  <si>
+    <t>Upper Middle Fork Salmon, Rapid, Pistol, Marble</t>
+  </si>
+  <si>
+    <t>Lower Big (TAY), Upper Big (TAY), Monumental (TAY)</t>
+  </si>
+  <si>
+    <t>Upper Loon, Camas</t>
+  </si>
+  <si>
+    <t>Johnson (ESS), Upper East Fork South Fork (ESS), Upper South Fork Salmon (KRS)</t>
+  </si>
+  <si>
+    <t>Little Salmon</t>
+  </si>
+  <si>
+    <t>Upper Selway (SW1), White Cap, Bear (SW1), Lower Selway (SW1), East Fork Moose (SW1), North Fork Moose (SW1), Meadow (SW1)</t>
+  </si>
+  <si>
+    <t>White Sands (LRL), Crooked Fork (LRL), Fish Lake (LRL)</t>
+  </si>
+  <si>
+    <t>Newsome (SC2), American (CRA), Upper South Fork (CRA)</t>
+  </si>
+  <si>
+    <t>Lolo (LC1)</t>
+  </si>
+  <si>
+    <t>Big Canyon</t>
+  </si>
+  <si>
+    <r>
+      <t>Clear (CLC), Lower SF Clearwater Tribs (SC1), Lawyer (LAW), Lapwai (LAP), Potlatch (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JUL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Upper Imnaha (IR1), Big Sheep (IR1), Little Sheep (IR1), Lower Imnaha (IR1)</t>
+  </si>
+  <si>
+    <t>Lookingglass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Grande Ronde (UGS), Meadow (UGR), Five Points (UGR), Catherine (UGR), Indian (UGR) </t>
+  </si>
+  <si>
+    <t>Upper Wallowa (WR2), Lostine (WR2), Bear (WR2), Minam (MR1)</t>
+  </si>
+  <si>
+    <t>Elk (JOC), Swamp (JOC), Chesnimnus (JOC)</t>
+  </si>
+  <si>
+    <t>Wenaha (WEN)</t>
+  </si>
+  <si>
+    <t>Mud</t>
+  </si>
+  <si>
+    <t>Upper Pine, North Pine, Wildhorse</t>
+  </si>
+  <si>
+    <t>Alpowa</t>
+  </si>
+  <si>
+    <t>Asotin (ACM)</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Another High-Precision Pop in MPG?</t>
+  </si>
+  <si>
+    <t>IPTDS Present in Pop?</t>
+  </si>
+  <si>
+    <t>Only High-Precision Method in Pop?</t>
+  </si>
+  <si>
+    <t>No IPTDS necessary on Biomark O&amp;M; consider removing IPTDS (if any) and keep other method</t>
+  </si>
+  <si>
+    <t>Keep or consider a low-precision method</t>
+  </si>
+  <si>
+    <t>Snake River spring/summer Chinook salmon technical recovery team population code</t>
+  </si>
+  <si>
+    <t>Snake River spring/summer Chinook salmon technical recovery team population name</t>
+  </si>
+  <si>
+    <t>Snake River steelhead technical recovery team population code</t>
+  </si>
+  <si>
+    <t>Snake River steelhead technical recovery team population name</t>
+  </si>
+  <si>
+    <t>Monitored w/ Only IPTDS?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2927,6 +3342,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3071,7 +3499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3175,12 +3603,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3464,16 +3970,108 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C4" dT="2023-06-06T17:06:59.64" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{AD1E88B1-2F92-43B6-B7DA-1FC5E172D563}">
-    <text>Update if/when new map is created.</text>
-  </threadedComment>
-  <threadedComment ref="C64" dT="2023-06-08T22:10:19.08" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{3D9FD2FA-9C88-48D2-BCB2-D2B9ED477202}">
+  <threadedComment ref="C63" dT="2023-06-08T22:10:19.08" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{3D9FD2FA-9C88-48D2-BCB2-D2B9ED477202}">
     <text>Additional metrics to consider</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G1" dT="2023-06-13T16:06:17.11" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{49AD47D5-9532-4B79-A036-CA5347F3BDEE}">
+    <text>Is there an IPTDS in the population?</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2023-06-13T16:08:39.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{FD6591EB-C611-4A2A-A881-1BD361364436}">
+    <text>Is it the only high-precision method in the population?</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2023-06-13T16:07:06.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{4C36CCDE-D95D-44DE-BAAB-9564D5F2204D}">
+    <text xml:space="preserve">Within the same MPG is there another pop with high-precision monitoring? </text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2023-06-13T16:09:49.13" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
+    <text>Is a low-precision monitoring method possible?</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2023-06-13T19:11:39.33" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{7A7CFB9D-1AC1-4AE5-BB21-C93813B9EB41}" parentId="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
+    <text>Likely still in "beta" phase, but is effective population size (Ne or Nb) monitoring using juvenile samples a feasible and/or reasonable alternative?</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2023-06-13T16:07:38.26" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A4989D90-3FBB-44C5-B529-67748B311857}">
+    <text>Is the population only monitored with IPTDS?</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2023-06-13T16:10:04.54" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{E951751E-436D-4FC4-8D1E-998A01F12994}">
+    <text>Is redundancy necessary?</text>
+  </threadedComment>
+  <threadedComment ref="F2" dT="2023-06-13T20:33:15.71" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{F1ED4CF2-BA0F-473A-B9DA-C0E601D9107C}">
+    <text>Natural and hatchery origin fish enumerated at the Sawtooth weir, correct?</text>
+  </threadedComment>
+  <threadedComment ref="F4" dT="2023-06-13T21:39:29.27" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{E9EB6F23-B135-406A-93FB-B99330CCEC4B}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2023-06-13T20:49:17.71" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{3C5A1271-1E0B-4098-A41B-B7B655811E71}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F7" dT="2023-06-13T20:50:53.67" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{8013520A-1754-4B81-B622-B57205C1CB26}">
+    <text>Natural and hatchery origin fish enumerated at the Pahsimeroi weir, correct?</text>
+  </threadedComment>
+  <threadedComment ref="F13" dT="2023-06-13T21:39:48.96" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{8E70B154-F4CA-43CA-9444-BF86A9DC2DE3}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F14" dT="2023-06-13T21:39:54.96" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{1CBF0AE6-896E-445A-892C-9DE9765FA6FF}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F15" dT="2023-06-13T21:40:01.37" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{0B852492-7DAC-4582-8F02-3A84082A6FD4}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F16" dT="2023-06-13T21:40:26.75" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{7AFA65D9-34FD-4747-9F3F-EC9E8753E9D6}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F17" dT="2023-06-13T21:40:49.43" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{F4329201-5706-4A87-B6C9-AC934D708772}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F19" dT="2023-06-13T22:01:27.52" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A59B7D38-B5FA-4F99-81C9-2216A5E4B317}">
+    <text>Chamberlain is its own GSI reporting group, but estimate is at LGR, not to river mouth.
+Also has index redd counts.</text>
+  </threadedComment>
+  <threadedComment ref="L26" dT="2023-06-14T15:47:57.13" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{4EA8EC24-DA87-4C97-BF97-D24B2220400F}">
+    <text>Weir is often pulled due to high temperatures later in the run</text>
+  </threadedComment>
+  <threadedComment ref="F28" dT="2023-06-13T22:02:38.72" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{FEE3224C-11C6-4B9F-9B68-A9C14A001D03}">
+    <text>A weir operated at Lookingglass Hatchery</text>
+  </threadedComment>
+  <threadedComment ref="F34" dT="2023-06-13T22:05:52.61" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{47E3FB04-B0BC-475E-96B5-163EB72473FF}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+  <threadedComment ref="F35" dT="2023-06-13T22:05:52.61" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A9F6C9DF-40CA-433C-9246-04A2F3DA5054}">
+    <text>I believe index redd counts (Poole et al. 2022)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G1" dT="2023-06-13T16:06:17.11" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{264DB33D-DB76-4D11-BAC7-1447A8DF770C}">
+    <text>Is there an IPTDS in the population?</text>
+  </threadedComment>
+  <threadedComment ref="H1" dT="2023-06-13T16:08:39.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{C16EF1B5-F293-4008-BE58-99CDB784A610}">
+    <text>Is it the only high-precision method in the population?</text>
+  </threadedComment>
+  <threadedComment ref="I1" dT="2023-06-13T16:07:06.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{37214CAF-E32D-423F-9F57-B1FF8880C16B}">
+    <text xml:space="preserve">Within the same MPG is there another pop with high-precision monitoring? </text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2023-06-13T16:09:49.13" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{776D5156-CEE8-4C40-9EF5-7C3B3583492C}">
+    <text>Is a low-precision monitoring method possible?</text>
+  </threadedComment>
+  <threadedComment ref="J1" dT="2023-06-13T19:11:39.33" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{F2FA98CF-D0BA-447C-A2D0-50C5F1B70869}" parentId="{776D5156-CEE8-4C40-9EF5-7C3B3583492C}">
+    <text>Likely still in "beta" phase, but is effective population size (Ne or Nb) monitoring using juvenile samples a feasible and/or reasonable alternative?</text>
+  </threadedComment>
+  <threadedComment ref="K1" dT="2023-06-13T16:07:38.26" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{3E986C16-BA37-47A0-86A7-922092A7EA2A}">
+    <text>Is the population only monitored with IPTDS?</text>
+  </threadedComment>
+  <threadedComment ref="L1" dT="2023-06-13T16:10:04.54" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{27376549-F13C-4B8F-9CC7-AE915F1E312B}">
+    <text>Is redundancy necessary?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="M1" dT="2023-02-09T20:20:11.06" personId="{CCC70C7B-CF04-4E4C-A39F-557841FC0C18}" id="{43484BDD-BE13-4EF5-9F51-FF4EE38B3A82}">
     <text>Who authorized installation and O&amp;M?</text>
@@ -3528,9 +4126,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
-  <dimension ref="B1:AA67"/>
+  <dimension ref="B1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3558,7 +4156,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -3592,701 +4190,631 @@
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>688</v>
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="42"/>
+      <c r="C16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="41"/>
-      <c r="C16" t="s">
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B18" s="41"/>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
-      <c r="C17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B18" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>29</v>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B19" s="41"/>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B20" s="41"/>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="42"/>
-      <c r="C21" s="12" t="s">
+    <row r="20" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="42"/>
+      <c r="C20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B22" s="40" t="s">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="42"/>
-      <c r="C23" s="12" t="s">
+    <row r="22" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="42"/>
+      <c r="C22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B23" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B25" s="41"/>
-      <c r="C25" t="s">
+      <c r="B24" s="41"/>
+      <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="42"/>
-      <c r="C26" s="12" t="s">
+    <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="42"/>
+      <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>38</v>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B29" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="D29" t="s">
+        <v>661</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D30" t="s">
-        <v>661</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
+        <v>662</v>
+      </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
-        <v>215</v>
+      <c r="B31" s="39" t="s">
+        <v>704</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D31" t="s">
-        <v>662</v>
-      </c>
-      <c r="K31" t="s">
-        <v>215</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B32" s="39" t="s">
-        <v>707</v>
+      <c r="B32" s="4" t="s">
+        <v>690</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D32" t="s">
-        <v>680</v>
-      </c>
-      <c r="K32" s="35" t="s">
-        <v>707</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="K32" s="33"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>693</v>
+        <v>1</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D33" t="s">
-        <v>697</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>693</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="K33" s="33"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D34" t="s">
-        <v>670</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>1</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D35" t="s">
-        <v>698</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>41</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="K35" s="33"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D36" t="s">
-        <v>664</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>216</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
-        <v>217</v>
+        <v>706</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D37" t="s">
-        <v>665</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>217</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="K37" s="33"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
-        <v>709</v>
+        <v>2</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D38" t="s">
-        <v>770</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>709</v>
-      </c>
+        <v>901</v>
+      </c>
+      <c r="K38" s="33"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
-        <v>2</v>
+        <v>707</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D39" t="s">
-        <v>666</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>2</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="K39" s="33"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
-        <v>710</v>
+        <v>626</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>640</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>710</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="D40" t="s">
+        <v>666</v>
+      </c>
+      <c r="K40" s="33"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
-        <v>626</v>
+        <v>762</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D41" t="s">
-        <v>667</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>626</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="K41" s="33"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
-        <v>765</v>
+        <v>3</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D42" t="s">
-        <v>771</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>765</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="K42" s="33"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
-        <v>3</v>
+        <v>708</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D43" t="s">
-        <v>668</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>3</v>
-      </c>
+        <v>904</v>
+      </c>
+      <c r="K43" s="33"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
-        <v>711</v>
+        <v>625</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>711</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="D44" t="s">
+        <v>667</v>
+      </c>
+      <c r="K44" s="33"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
-        <v>625</v>
+        <v>218</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D45" t="s">
         <v>669</v>
       </c>
-      <c r="K45" s="33" t="s">
-        <v>625</v>
-      </c>
+      <c r="K45" s="33"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D46" t="s">
-        <v>671</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>218</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="K46" s="33"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D47" t="s">
-        <v>672</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>219</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D48" t="s">
-        <v>673</v>
-      </c>
-      <c r="K48" s="34" t="s">
-        <v>221</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
-        <v>222</v>
+        <v>530</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D49" t="s">
-        <v>674</v>
-      </c>
-      <c r="K49" s="34" t="s">
-        <v>222</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="K49" s="33"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D50" t="s">
-        <v>675</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>530</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="K50" s="33"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D51" t="s">
-        <v>676</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>531</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="K51" s="33"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
-        <v>537</v>
+        <v>620</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D52" t="s">
-        <v>677</v>
-      </c>
-      <c r="K52" s="33" t="s">
-        <v>537</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="K52" s="33"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D53" t="s">
-        <v>678</v>
-      </c>
-      <c r="K53" s="33" t="s">
-        <v>620</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B54" s="4" t="s">
-        <v>621</v>
+      <c r="B54" s="39" t="s">
+        <v>535</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D54" t="s">
         <v>679</v>
       </c>
-      <c r="K54" s="33" t="s">
-        <v>621</v>
-      </c>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B55" s="39" t="s">
-        <v>535</v>
+      <c r="B55" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D55" t="s">
-        <v>681</v>
-      </c>
-      <c r="K55" s="35" t="s">
-        <v>535</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B56" s="4" t="s">
-        <v>521</v>
+      <c r="B56" s="39" t="s">
+        <v>536</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D56" t="s">
-        <v>708</v>
-      </c>
-      <c r="K56" s="33" t="s">
-        <v>521</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="39" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D57" t="s">
-        <v>682</v>
-      </c>
-      <c r="K57" s="35" t="s">
-        <v>536</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="K57" s="35"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="39" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D58" t="s">
-        <v>683</v>
-      </c>
-      <c r="K58" s="35" t="s">
-        <v>525</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="39" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D59" t="s">
-        <v>684</v>
-      </c>
-      <c r="K59" s="35" t="s">
-        <v>526</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="K59" s="35"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="39" t="s">
-        <v>527</v>
+        <v>627</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="D60" t="s">
-        <v>685</v>
-      </c>
-      <c r="K60" s="35" t="s">
-        <v>527</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="K60" s="35"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="39" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C61" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="D61" t="s">
+        <v>685</v>
+      </c>
+      <c r="K61" s="35"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B62" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="D62" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B63" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="D61" t="s">
-        <v>686</v>
-      </c>
-      <c r="K61" s="35" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B62" s="39" t="s">
-        <v>624</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>772</v>
-      </c>
-      <c r="D62" t="s">
-        <v>687</v>
-      </c>
-      <c r="K62" s="35" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B63" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="C63" s="33" t="s">
-        <v>773</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>663</v>
-      </c>
-      <c r="K63" t="s">
-        <v>220</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="39" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="39" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>238</v>
       </c>
       <c r="D65" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="39" t="s">
-        <v>702</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D67" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{58668A7B-6A3A-40D1-9FDB-FE6C0D159D85}"/>
@@ -4305,7 +4833,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4313,7 +4841,7 @@
     <col min="1" max="1" width="9.08984375" style="33" customWidth="1"/>
     <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6328125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" style="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" style="33" bestFit="1" customWidth="1"/>
@@ -4354,10 +4882,10 @@
         <v>215</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>1</v>
@@ -4372,25 +4900,25 @@
         <v>217</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>626</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="P1" s="33" t="s">
         <v>625</v>
@@ -4461,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E2" s="33" t="s">
         <v>164</v>
@@ -4476,16 +5004,16 @@
         <v>-118.16290100000001</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>164</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>203</v>
@@ -4556,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>164</v>
@@ -4571,16 +5099,16 @@
         <v>-118.016274</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K3" s="33" t="s">
         <v>164</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N3" s="33" t="s">
         <v>203</v>
@@ -4651,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>164</v>
@@ -4666,16 +5194,16 @@
         <v>-117.738342</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>164</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N4" s="33" t="s">
         <v>203</v>
@@ -4746,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>164</v>
@@ -4761,16 +5289,16 @@
         <v>-117.657161</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>164</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>203</v>
@@ -4839,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>164</v>
@@ -4854,16 +5382,16 @@
         <v>-117.706176</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>164</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>203</v>
@@ -4934,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>240</v>
@@ -4958,7 +5486,7 @@
         <v>238</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N7" s="33" t="s">
         <v>203</v>
@@ -5017,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>129</v>
@@ -5032,22 +5560,22 @@
         <v>-116.812535</v>
       </c>
       <c r="I8" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N8" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P8" s="38">
         <v>13.4</v>
@@ -5112,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>130</v>
@@ -5127,22 +5655,22 @@
         <v>-116.79575699999999</v>
       </c>
       <c r="I9" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N9" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P9" s="38">
         <v>4.9000000000000004</v>
@@ -5207,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>132</v>
@@ -5222,22 +5750,22 @@
         <v>-116.831974</v>
       </c>
       <c r="I10" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="M10" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N10" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P10" s="38">
         <v>2.1</v>
@@ -5302,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>131</v>
@@ -5317,22 +5845,22 @@
         <v>-116.735597</v>
       </c>
       <c r="I11" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="M11" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N11" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P11" s="38">
         <v>4.9000000000000004</v>
@@ -5397,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>133</v>
@@ -5412,22 +5940,22 @@
         <v>-116.709318</v>
       </c>
       <c r="I12" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="M12" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M12" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N12" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P12" s="38">
         <v>24.9</v>
@@ -5494,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>133</v>
@@ -5509,22 +6037,22 @@
         <v>-116.646846</v>
       </c>
       <c r="I13" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="M13" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N13" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P13" s="38">
         <v>3.7</v>
@@ -5589,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>134</v>
@@ -5604,22 +6132,22 @@
         <v>-116.650795</v>
       </c>
       <c r="I14" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N14" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P14" s="38" t="s">
         <v>238</v>
@@ -5688,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>135</v>
@@ -5703,22 +6231,22 @@
         <v>-116.596836</v>
       </c>
       <c r="I15" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="M15" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N15" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P15" s="38">
         <v>2</v>
@@ -5785,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>136</v>
@@ -5800,22 +6328,22 @@
         <v>-116.41088000000001</v>
       </c>
       <c r="I16" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="M16" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M16" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N16" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P16" s="38" t="s">
         <v>238</v>
@@ -5882,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>133</v>
@@ -5897,22 +6425,22 @@
         <v>-116.42841199999999</v>
       </c>
       <c r="I17" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>716</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>717</v>
+      </c>
+      <c r="M17" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P17" s="38">
         <v>3</v>
@@ -5977,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>137</v>
@@ -5992,22 +6520,22 @@
         <v>-116.54975899999999</v>
       </c>
       <c r="I18" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>712</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="M18" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="M18" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N18" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P18" s="38" t="s">
         <v>238</v>
@@ -6072,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>140</v>
@@ -6087,16 +6615,16 @@
         <v>-115.97615999999999</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K19" s="33" t="s">
         <v>140</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N19" s="33" t="s">
         <v>190</v>
@@ -6169,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>140</v>
@@ -6184,16 +6712,16 @@
         <v>-115.933747</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>140</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N20" s="33" t="s">
         <v>190</v>
@@ -6266,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E21" s="33" t="s">
         <v>609</v>
@@ -6281,22 +6809,22 @@
         <v>-116.13350699999999</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K21" s="33" t="s">
         <v>610</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N21" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="33" t="s">
@@ -6349,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>610</v>
@@ -6364,22 +6892,22 @@
         <v>-116.02898500000001</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>610</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N22" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="33" t="s">
@@ -6432,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>142</v>
@@ -6447,16 +6975,16 @@
         <v>-115.981313</v>
       </c>
       <c r="I23" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="M23" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="M23" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N23" s="33" t="s">
         <v>192</v>
@@ -6529,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>142</v>
@@ -6544,16 +7072,16 @@
         <v>-115.97776</v>
       </c>
       <c r="I24" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="M24" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N24" s="33" t="s">
         <v>192</v>
@@ -6626,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>138</v>
@@ -6641,22 +7169,22 @@
         <v>-115.95018399999999</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="K25" s="33" t="s">
         <v>610</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N25" s="33" t="s">
         <v>188</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="P25" s="38">
         <v>6.17</v>
@@ -6721,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>139</v>
@@ -6736,16 +7264,16 @@
         <v>-115.596497</v>
       </c>
       <c r="I26" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="J26" s="33" t="s">
         <v>721</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>724</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>139</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N26" s="33" t="s">
         <v>189</v>
@@ -6818,7 +7346,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>139</v>
@@ -6833,16 +7361,16 @@
         <v>-115.589663</v>
       </c>
       <c r="I27" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="J27" s="33" t="s">
         <v>721</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>724</v>
       </c>
       <c r="K27" s="33" t="s">
         <v>139</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N27" s="33" t="s">
         <v>189</v>
@@ -6915,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>141</v>
@@ -6930,16 +7458,16 @@
         <v>-115.56588600000001</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N28" s="33" t="s">
         <v>191</v>
@@ -7012,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>141</v>
@@ -7027,16 +7555,16 @@
         <v>-115.515533</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="M29" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N29" s="33" t="s">
         <v>191</v>
@@ -7109,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>142</v>
@@ -7124,16 +7652,16 @@
         <v>-115.815972</v>
       </c>
       <c r="I30" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="M30" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N30" s="33" t="s">
         <v>192</v>
@@ -7206,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>142</v>
@@ -7221,16 +7749,16 @@
         <v>-115.6341</v>
       </c>
       <c r="I31" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="M31" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="M31" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N31" s="33" t="s">
         <v>192</v>
@@ -7303,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>143</v>
@@ -7318,16 +7846,16 @@
         <v>-115.52766</v>
       </c>
       <c r="I32" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="M32" s="33" t="s">
         <v>714</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="M32" s="33" t="s">
-        <v>717</v>
       </c>
       <c r="N32" s="33" t="s">
         <v>192</v>
@@ -7400,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>162</v>
@@ -7415,16 +7943,16 @@
         <v>-117.055707</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K33" s="33" t="s">
         <v>162</v>
       </c>
       <c r="M33" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N33" s="33" t="s">
         <v>202</v>
@@ -7497,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>162</v>
@@ -7512,16 +8040,16 @@
         <v>-117.108679</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K34" s="33" t="s">
         <v>162</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N34" s="33" t="s">
         <v>202</v>
@@ -7594,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>163</v>
@@ -7609,16 +8137,16 @@
         <v>-117.28249700000001</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K35" s="33" t="s">
         <v>162</v>
       </c>
       <c r="M35" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N35" s="33" t="s">
         <v>202</v>
@@ -7691,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>162</v>
@@ -7706,16 +8234,16 @@
         <v>-117.292147</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="K36" s="33" t="s">
         <v>162</v>
       </c>
       <c r="M36" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="N36" s="33" t="s">
         <v>202</v>
@@ -7788,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>144</v>
@@ -7803,7 +8331,7 @@
         <v>-117.016408</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J37" s="33" t="s">
         <v>238</v>
@@ -7883,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>145</v>
@@ -7898,10 +8426,10 @@
         <v>-117.45412399999999</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K38" s="33" t="s">
         <v>145</v>
@@ -7913,7 +8441,7 @@
         <v>194</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="P38" s="38">
         <v>99</v>
@@ -7980,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>149</v>
@@ -7995,13 +8523,13 @@
         <v>-117.733757</v>
       </c>
       <c r="I39" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="J39" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="J39" s="33" t="s">
-        <v>731</v>
-      </c>
       <c r="K39" s="33" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="M39" s="33" t="s">
         <v>146</v>
@@ -8079,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>150</v>
@@ -8094,10 +8622,10 @@
         <v>-117.72657</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K40" s="33" t="s">
         <v>150</v>
@@ -8178,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>149</v>
@@ -8193,13 +8721,13 @@
         <v>-117.579223</v>
       </c>
       <c r="I41" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="J41" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="J41" s="33" t="s">
-        <v>731</v>
-      </c>
       <c r="K41" s="33" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="M41" s="33" t="s">
         <v>146</v>
@@ -8277,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>146</v>
@@ -8292,13 +8820,13 @@
         <v>-117.903379</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M42" s="33" t="s">
         <v>146</v>
@@ -8307,7 +8835,7 @@
         <v>195</v>
       </c>
       <c r="O42" s="33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P42" s="38">
         <v>88.1</v>
@@ -8370,13 +8898,13 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C43" s="34" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>147</v>
@@ -8391,10 +8919,10 @@
         <v>-117.82861699999999</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J43" s="33" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K43" s="33" t="s">
         <v>147</v>
@@ -8406,13 +8934,13 @@
         <v>195</v>
       </c>
       <c r="O43" s="33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P43" s="38" t="s">
         <v>238</v>
       </c>
       <c r="Q43" s="33" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="R43" s="33">
         <v>1057</v>
@@ -8459,7 +8987,7 @@
       </c>
       <c r="AG43" s="37"/>
       <c r="AH43" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
@@ -8473,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>147</v>
@@ -8488,10 +9016,10 @@
         <v>-117.900689</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J44" s="33" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K44" s="33" t="s">
         <v>147</v>
@@ -8503,7 +9031,7 @@
         <v>195</v>
       </c>
       <c r="O44" s="33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>238</v>
@@ -8572,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>146</v>
@@ -8587,13 +9115,13 @@
         <v>-118.388958</v>
       </c>
       <c r="I45" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J45" s="33" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K45" s="33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="M45" s="33" t="s">
         <v>146</v>
@@ -8602,7 +9130,7 @@
         <v>195</v>
       </c>
       <c r="O45" s="33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P45" s="38">
         <v>14</v>
@@ -8671,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>180</v>
@@ -8689,10 +9217,10 @@
         <v>159</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="K46" s="33" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="M46" s="33" t="s">
         <v>619</v>
@@ -8701,7 +9229,7 @@
         <v>205</v>
       </c>
       <c r="O46" s="33" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="P46" s="38" t="s">
         <v>238</v>
@@ -8766,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E47" s="33" t="s">
         <v>159</v>
@@ -8784,10 +9312,10 @@
         <v>159</v>
       </c>
       <c r="J47" s="33" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K47" s="33" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M47" s="33" t="s">
         <v>619</v>
@@ -8861,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>161</v>
@@ -8879,7 +9407,7 @@
         <v>159</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="K48" s="33" t="s">
         <v>161</v>
@@ -8956,7 +9484,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E49" s="33" t="s">
         <v>160</v>
@@ -8974,7 +9502,7 @@
         <v>159</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K49" s="33" t="s">
         <v>160</v>
@@ -9051,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>160</v>
@@ -9069,7 +9597,7 @@
         <v>159</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K50" s="33" t="s">
         <v>160</v>
@@ -9099,16 +9627,16 @@
         <v>238</v>
       </c>
       <c r="U50" s="34" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="V50" s="34" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="W50" s="34" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="X50" s="34" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="Y50" s="34" t="s">
         <v>556</v>
@@ -9146,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>159</v>
@@ -9164,10 +9692,10 @@
         <v>159</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="K51" s="33" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="M51" s="33" t="s">
         <v>619</v>
@@ -9241,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>157</v>
@@ -9256,10 +9784,10 @@
         <v>-114.85381700000001</v>
       </c>
       <c r="I52" s="33" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="K52" s="33" t="s">
         <v>157</v>
@@ -9271,7 +9799,7 @@
         <v>198</v>
       </c>
       <c r="O52" s="33" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="P52" s="38">
         <v>37.9</v>
@@ -9338,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E53" s="33" t="s">
         <v>611</v>
@@ -9353,10 +9881,10 @@
         <v>-115.284171</v>
       </c>
       <c r="I53" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="J53" s="33" t="s">
         <v>744</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>747</v>
       </c>
       <c r="K53" s="33" t="s">
         <v>611</v>
@@ -9368,7 +9896,7 @@
         <v>199</v>
       </c>
       <c r="O53" s="33" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="P53" s="38"/>
       <c r="Q53" s="33" t="s">
@@ -9419,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>158</v>
@@ -9434,10 +9962,10 @@
         <v>-115.179841</v>
       </c>
       <c r="I54" s="33" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="K54" s="33" t="s">
         <v>158</v>
@@ -9449,7 +9977,7 @@
         <v>199</v>
       </c>
       <c r="O54" s="33" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="P54" s="38">
         <v>45.9</v>
@@ -9516,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E55" s="33" t="s">
         <v>615</v>
@@ -9534,7 +10062,7 @@
         <v>183</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="K55" s="33" t="s">
         <v>615</v>
@@ -9615,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E56" s="33" t="s">
         <v>181</v>
@@ -9633,7 +10161,7 @@
         <v>183</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="K56" s="33" t="s">
         <v>181</v>
@@ -9712,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>165</v>
@@ -9730,7 +10258,7 @@
         <v>183</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K57" s="33" t="s">
         <v>612</v>
@@ -9807,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E58" s="33" t="s">
         <v>612</v>
@@ -9825,7 +10353,7 @@
         <v>183</v>
       </c>
       <c r="J58" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K58" s="33" t="s">
         <v>612</v>
@@ -9904,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E59" s="33" t="s">
         <v>612</v>
@@ -9922,7 +10450,7 @@
         <v>183</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K59" s="33" t="s">
         <v>612</v>
@@ -10001,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E60" s="33" t="s">
         <v>612</v>
@@ -10019,7 +10547,7 @@
         <v>183</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K60" s="33" t="s">
         <v>612</v>
@@ -10084,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E61" s="33" t="s">
         <v>612</v>
@@ -10102,7 +10630,7 @@
         <v>183</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K61" s="33" t="s">
         <v>612</v>
@@ -10167,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>612</v>
@@ -10185,7 +10713,7 @@
         <v>183</v>
       </c>
       <c r="J62" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K62" s="33" t="s">
         <v>612</v>
@@ -10250,7 +10778,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>169</v>
@@ -10268,7 +10796,7 @@
         <v>183</v>
       </c>
       <c r="J63" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K63" s="33" t="s">
         <v>612</v>
@@ -10347,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>612</v>
@@ -10365,7 +10893,7 @@
         <v>183</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K64" s="33" t="s">
         <v>612</v>
@@ -10428,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>612</v>
@@ -10446,7 +10974,7 @@
         <v>183</v>
       </c>
       <c r="J65" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K65" s="33" t="s">
         <v>612</v>
@@ -10525,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>616</v>
@@ -10543,7 +11071,7 @@
         <v>183</v>
       </c>
       <c r="J66" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K66" s="33" t="s">
         <v>612</v>
@@ -10620,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>171</v>
@@ -10638,7 +11166,7 @@
         <v>183</v>
       </c>
       <c r="J67" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K67" s="33" t="s">
         <v>612</v>
@@ -10717,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>172</v>
@@ -10735,7 +11263,7 @@
         <v>183</v>
       </c>
       <c r="J68" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K68" s="33" t="s">
         <v>612</v>
@@ -10812,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>612</v>
@@ -10830,7 +11358,7 @@
         <v>183</v>
       </c>
       <c r="J69" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K69" s="33" t="s">
         <v>612</v>
@@ -10895,7 +11423,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>168</v>
@@ -10913,7 +11441,7 @@
         <v>183</v>
       </c>
       <c r="J70" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K70" s="33" t="s">
         <v>612</v>
@@ -10992,7 +11520,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>612</v>
@@ -11010,7 +11538,7 @@
         <v>183</v>
       </c>
       <c r="J71" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K71" s="33" t="s">
         <v>612</v>
@@ -11089,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>617</v>
@@ -11107,7 +11635,7 @@
         <v>183</v>
       </c>
       <c r="J72" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K72" s="33" t="s">
         <v>612</v>
@@ -11186,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>437</v>
@@ -11204,7 +11732,7 @@
         <v>183</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K73" s="33" t="s">
         <v>612</v>
@@ -11281,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>175</v>
@@ -11299,7 +11827,7 @@
         <v>183</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K74" s="33" t="s">
         <v>612</v>
@@ -11378,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>176</v>
@@ -11396,7 +11924,7 @@
         <v>183</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K75" s="33" t="s">
         <v>612</v>
@@ -11473,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>177</v>
@@ -11491,7 +12019,7 @@
         <v>183</v>
       </c>
       <c r="J76" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K76" s="33" t="s">
         <v>612</v>
@@ -11554,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E77" s="33" t="s">
         <v>177</v>
@@ -11572,7 +12100,7 @@
         <v>183</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K77" s="33" t="s">
         <v>612</v>
@@ -11651,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E78" s="33" t="s">
         <v>177</v>
@@ -11669,7 +12197,7 @@
         <v>183</v>
       </c>
       <c r="J78" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K78" s="33" t="s">
         <v>612</v>
@@ -11746,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>177</v>
@@ -11764,7 +12292,7 @@
         <v>183</v>
       </c>
       <c r="J79" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K79" s="33" t="s">
         <v>612</v>
@@ -11841,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E80" s="33" t="s">
         <v>178</v>
@@ -11859,7 +12387,7 @@
         <v>183</v>
       </c>
       <c r="J80" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K80" s="33" t="s">
         <v>612</v>
@@ -11938,7 +12466,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E81" s="33" t="s">
         <v>618</v>
@@ -11956,7 +12484,7 @@
         <v>183</v>
       </c>
       <c r="J81" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K81" s="33" t="s">
         <v>612</v>
@@ -12035,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E82" s="33" t="s">
         <v>612</v>
@@ -12053,7 +12581,7 @@
         <v>183</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="K82" s="33" t="s">
         <v>612</v>
@@ -12116,7 +12644,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E83" s="33" t="s">
         <v>619</v>
@@ -12134,10 +12662,10 @@
         <v>183</v>
       </c>
       <c r="J83" s="33" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="K83" s="33" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M83" s="33" t="s">
         <v>619</v>
@@ -12146,7 +12674,7 @@
         <v>208</v>
       </c>
       <c r="O83" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="P83" s="38" t="s">
         <v>238</v>
@@ -12211,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E84" s="33" t="s">
         <v>619</v>
@@ -12229,10 +12757,10 @@
         <v>183</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="K84" s="33" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M84" s="33" t="s">
         <v>619</v>
@@ -12241,7 +12769,7 @@
         <v>208</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="P84" s="38">
         <v>93.7</v>
@@ -12308,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E85" s="33" t="s">
         <v>184</v>
@@ -12326,10 +12854,10 @@
         <v>183</v>
       </c>
       <c r="J85" s="33" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="K85" s="33" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M85" s="33" t="s">
         <v>619</v>
@@ -12338,7 +12866,7 @@
         <v>209</v>
       </c>
       <c r="O85" s="33" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P85" s="38" t="s">
         <v>238</v>
@@ -12407,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>613</v>
@@ -12425,10 +12953,10 @@
         <v>183</v>
       </c>
       <c r="J86" s="33" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="K86" s="33" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M86" s="33" t="s">
         <v>619</v>
@@ -12437,7 +12965,7 @@
         <v>209</v>
       </c>
       <c r="O86" s="33" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P86" s="38"/>
       <c r="Q86" s="33" t="s">
@@ -12488,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E87" s="33" t="s">
         <v>185</v>
@@ -12506,7 +13034,7 @@
         <v>183</v>
       </c>
       <c r="J87" s="33" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="K87" s="33" t="s">
         <v>185</v>
@@ -12518,7 +13046,7 @@
         <v>209</v>
       </c>
       <c r="O87" s="33" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P87" s="38">
         <v>16.3</v>
@@ -12583,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E88" s="33" t="s">
         <v>185</v>
@@ -12601,7 +13129,7 @@
         <v>183</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="K88" s="33" t="s">
         <v>185</v>
@@ -12613,7 +13141,7 @@
         <v>209</v>
       </c>
       <c r="O88" s="33" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P88" s="38">
         <v>16.3</v>
@@ -12678,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E89" s="33" t="s">
         <v>186</v>
@@ -12696,10 +13224,10 @@
         <v>183</v>
       </c>
       <c r="J89" s="33" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K89" s="33" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M89" s="33" t="s">
         <v>619</v>
@@ -12708,7 +13236,7 @@
         <v>209</v>
       </c>
       <c r="O89" s="33" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="P89" s="38">
         <v>1.9</v>
@@ -12775,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E90" s="33" t="s">
         <v>151</v>
@@ -12790,13 +13318,13 @@
         <v>-116.74403700000001</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J90" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K90" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M90" s="33" t="s">
         <v>152</v>
@@ -12866,13 +13394,13 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C91" s="34" t="b">
         <v>0</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E91" s="33" t="s">
         <v>152</v>
@@ -12887,13 +13415,13 @@
         <v>-116.868663</v>
       </c>
       <c r="I91" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J91" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K91" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M91" s="33" t="s">
         <v>152</v>
@@ -12969,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E92" s="33" t="s">
         <v>152</v>
@@ -12984,13 +13512,13 @@
         <v>-116.750231</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J92" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K92" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M92" s="33" t="s">
         <v>152</v>
@@ -13066,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E93" s="33" t="s">
         <v>152</v>
@@ -13081,13 +13609,13 @@
         <v>-116.764304</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K93" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M93" s="33" t="s">
         <v>152</v>
@@ -13163,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>153</v>
@@ -13178,10 +13706,10 @@
         <v>-116.872927</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K94" s="33" t="s">
         <v>154</v>
@@ -13260,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E95" s="33" t="s">
         <v>614</v>
@@ -13275,10 +13803,10 @@
         <v>-116.868492</v>
       </c>
       <c r="I95" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K95" s="33" t="s">
         <v>154</v>
@@ -13343,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E96" s="33" t="s">
         <v>154</v>
@@ -13358,10 +13886,10 @@
         <v>-116.850735</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J96" s="33" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K96" s="33" t="s">
         <v>154</v>
@@ -13440,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E97" s="33" t="s">
         <v>152</v>
@@ -13455,13 +13983,13 @@
         <v>-116.804096</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J97" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K97" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M97" s="33" t="s">
         <v>152</v>
@@ -13537,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E98" s="33" t="s">
         <v>155</v>
@@ -13552,13 +14080,13 @@
         <v>-116.806641</v>
       </c>
       <c r="I98" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J98" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K98" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M98" s="33" t="s">
         <v>152</v>
@@ -13634,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>156</v>
@@ -13649,13 +14177,13 @@
         <v>-116.84478</v>
       </c>
       <c r="I99" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J99" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K99" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M99" s="33" t="s">
         <v>152</v>
@@ -13731,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>152</v>
@@ -13746,13 +14274,13 @@
         <v>-116.868774</v>
       </c>
       <c r="I100" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J100" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K100" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M100" s="33" t="s">
         <v>152</v>
@@ -13830,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E101" s="33" t="s">
         <v>152</v>
@@ -13845,13 +14373,13 @@
         <v>-116.868593</v>
       </c>
       <c r="I101" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J101" s="33" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="K101" s="33" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M101" s="33" t="s">
         <v>152</v>
@@ -13925,11 +14453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B48E5-B2D0-4B19-967E-72BE4D4B4F25}">
-  <dimension ref="A1:K44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B48E5-B2D0-4B19-967E-72BE4D4B4F25}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G1" sqref="G1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13940,790 +14468,1879 @@
     <col min="4" max="4" width="44.1796875" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.26953125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="67.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>520</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>775</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
-        <v>780</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>796</v>
+        <v>757</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>795</v>
+        <v>758</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>612</v>
+        <v>185</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>750</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>181</v>
-      </c>
       <c r="E4" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>797</v>
+        <v>753</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>750</v>
+        <v>791</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>615</v>
+        <v>790</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>753</v>
+        <v>792</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>761</v>
+        <v>612</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>757</v>
+        <v>615</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>812</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>744</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>747</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>611</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>746</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>789</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>785</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>787</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>786</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>783</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>782</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>745</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>784</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>783</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>786</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>785</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>788</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>787</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>749</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>790</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>789</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>792</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>791</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>744</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>794</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>793</v>
-      </c>
       <c r="E19" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>160</v>
+        <v>738</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>738</v>
+        <v>160</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>161</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>154</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N24" s="33"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B25" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>759</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>760</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>733</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>813</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>725</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>735</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>762</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>763</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>782</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>781</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>731</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>732</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>728</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>733</v>
-      </c>
       <c r="D30" s="33" t="s">
-        <v>150</v>
+        <v>729</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>145</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>162</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N32" s="33"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>164</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>815</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="D34" s="33" t="s">
+        <v>801</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N34" s="33"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>798</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>797</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N35" s="33"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>796</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>795</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N36" s="33"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>721</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N37" s="33"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>719</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N38" s="33"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>800</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>799</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N39" s="33"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>794</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>818</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N40" s="33"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>722</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N41" s="33"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>814</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N42" s="33"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>723</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>610</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>719</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>714</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>725</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>726</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>724</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>722</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>799</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>798</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>801</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>800</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>803</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>802</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
-        <v>780</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>721</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>805</v>
-      </c>
       <c r="D43" s="33" t="s">
-        <v>804</v>
+        <v>717</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>814</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="33" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>807</v>
+        <v>712</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>806</v>
+        <v>713</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>819</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>817</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N44" s="33"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:L44">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M44">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Include necessary population-scale IPTDS in Biomark O&amp;M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"No IPTDS necessary on Biomark O&amp;M; consider removing IPTDS (if any) and keep other method"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Keep or consider a low-precision method"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30EE3DC5-8A6C-4F7E-9141-8BA79C56D55A}">
+          <x14:formula1>
+            <xm:f>validation!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M44</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175A1EF7-D6F6-40B5-8CC5-720EBF0869DB}">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175A1EF7-D6F6-40B5-8CC5-720EBF0869DB}">
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14734,142 +16351,259 @@
     <col min="4" max="4" width="42.26953125" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.81640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="32" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="129.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="33" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.26953125" style="33" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.7265625" style="33" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6328125" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7265625" style="33" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" style="33" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="51.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="114.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="104" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="129.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>520</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>776</v>
+        <v>897</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>776</v>
+        <v>898</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>822</v>
+        <v>815</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>817</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="I2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>862</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>863</v>
+      </c>
+      <c r="R2" t="s">
+        <v>847</v>
+      </c>
+      <c r="U2" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>864</v>
+      </c>
+      <c r="R3" t="s">
+        <v>845</v>
+      </c>
+      <c r="U3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>814</v>
+        <v>208</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>795</v>
+        <v>752</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F4" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="N4" s="33" t="s">
         <v>823</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="O4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>865</v>
+      </c>
+      <c r="R4" t="s">
         <v>843</v>
       </c>
-      <c r="I4" t="s">
-        <v>851</v>
-      </c>
-      <c r="L4" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="U4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>619</v>
@@ -14881,195 +16615,366 @@
         <v>612</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G5" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>866</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>739</v>
+        <v>181</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="G6" s="33" t="s">
         <v>856</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="I6" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>867</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>748</v>
+        <v>615</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G7" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="I7" t="s">
-        <v>847</v>
-      </c>
-      <c r="L7" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>206</v>
+        <v>808</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>181</v>
+        <v>780</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>821</v>
+        <v>818</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>821</v>
+        <v>815</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I9" t="s">
-        <v>849</v>
-      </c>
-      <c r="L9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N9" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>873</v>
+      </c>
+      <c r="R9" t="s">
+        <v>841</v>
+      </c>
+      <c r="U9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>615</v>
+        <v>743</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>821</v>
+        <v>815</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="R10" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>758</v>
+        <v>159</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I11" t="s">
-        <v>853</v>
-      </c>
-      <c r="L11" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R11" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>619</v>
@@ -15081,76 +16986,157 @@
         <v>161</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I12" t="s">
+        <v>856</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>870</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>619</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>159</v>
+        <v>736</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>821</v>
+        <v>818</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="H13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>849</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="R13" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>804</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>878</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R14" t="s">
         <v>828</v>
       </c>
-      <c r="I13" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>809</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>822</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I14" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>189</v>
@@ -15159,151 +17145,319 @@
         <v>139</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I15" t="s">
+        <v>856</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R15" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>804</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>817</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R16" t="s">
+        <v>829</v>
+      </c>
+      <c r="U16" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>809</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="C16" s="33" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I16" t="s">
-        <v>831</v>
-      </c>
-      <c r="L16" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>809</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>811</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="E17" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="F17" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R17" t="s">
+        <v>826</v>
+      </c>
+      <c r="U17" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>804</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>810</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>812</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>809</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I18" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>809</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>717</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>821</v>
+      <c r="G19" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I19" t="s">
-        <v>834</v>
-      </c>
-      <c r="L19" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="R19" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>730</v>
+        <v>152</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>822</v>
+        <v>816</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I20" t="s">
+        <v>856</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R20" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="U20" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>146</v>
@@ -15312,140 +17466,272 @@
         <v>195</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I21" t="s">
-        <v>837</v>
-      </c>
-      <c r="L21" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>886</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>885</v>
+      </c>
+      <c r="R21" t="s">
+        <v>832</v>
+      </c>
+      <c r="U21" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>146</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R22" t="s">
+        <v>834</v>
+      </c>
+      <c r="U22" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I23" t="s">
-        <v>839</v>
-      </c>
-      <c r="L23" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>152</v>
+        <v>727</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>821</v>
+        <v>817</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I24" t="s">
-        <v>841</v>
-      </c>
-      <c r="L24" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="R24" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C25" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>812</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>810</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>821</v>
+      <c r="F25" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>238</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>843</v>
-      </c>
-      <c r="I25" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>858</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="R25" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>202</v>
@@ -15454,24 +17740,51 @@
         <v>162</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="F26" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>816</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="N26" s="33" t="s">
         <v>821</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>826</v>
-      </c>
-      <c r="L26" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O26" s="33" t="s">
+        <v>893</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>892</v>
+      </c>
+      <c r="U26" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>203</v>
@@ -15480,25 +17793,127 @@
         <v>164</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>856</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>828</v>
-      </c>
-      <c r="I27" t="s">
+        <v>856</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>850</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>823</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="R27" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M2:M27">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Include necessary population-scale IPTDS in Biomark O&amp;M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"Population is a candidate for IPTDS in Biomark O&amp;M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"Keep or consider a low-precision method"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:L27">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M27" xr:uid="{84999CAD-73BF-4B90-BD3D-1A2729869608}">
+      <formula1>figure_1_outcomes</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69FC25A-3075-4846-AF97-0C29D8EDC2C1}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{197BC6E7-0281-48AD-9DD4-3B50E0B3BFA0}">
   <dimension ref="A1:Y90"/>
   <sheetViews>

--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CECE6D-8641-4892-9263-1148E60508DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEF30A6-98E0-4B3F-8C83-72F9928DBDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2385" windowWidth="32685" windowHeight="21150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -3499,7 +3499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3594,6 +3594,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3603,13 +3607,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3619,7 +3616,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3633,14 +3637,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4128,7 +4125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
   <dimension ref="B1:AA66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4207,7 +4204,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="42" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -4218,7 +4215,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="41"/>
+      <c r="B15" s="43"/>
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -4227,7 +4224,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
@@ -4236,7 +4233,7 @@
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -4247,7 +4244,7 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B18" s="41"/>
+      <c r="B18" s="43"/>
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -4256,7 +4253,7 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B19" s="41"/>
+      <c r="B19" s="43"/>
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -4265,7 +4262,7 @@
       </c>
     </row>
     <row r="20" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="12" t="s">
         <v>20</v>
       </c>
@@ -4274,7 +4271,7 @@
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -4285,7 +4282,7 @@
       </c>
     </row>
     <row r="22" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="42"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="12" t="s">
         <v>22</v>
       </c>
@@ -4294,7 +4291,7 @@
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -4305,7 +4302,7 @@
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="41"/>
+      <c r="B24" s="43"/>
       <c r="C24" t="s">
         <v>24</v>
       </c>
@@ -4314,7 +4311,7 @@
       </c>
     </row>
     <row r="25" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="42"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="12" t="s">
         <v>25</v>
       </c>
@@ -14683,7 +14680,7 @@
       <c r="K5" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="40" t="s">
         <v>895</v>
       </c>
     </row>
@@ -14927,7 +14924,7 @@
       <c r="K11" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="40" t="s">
         <v>895</v>
       </c>
     </row>
@@ -15581,7 +15578,7 @@
       <c r="K27" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="40" t="s">
         <v>895</v>
       </c>
     </row>
@@ -16336,7 +16333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175A1EF7-D6F6-40B5-8CC5-720EBF0869DB}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -16449,7 +16446,7 @@
       <c r="E2" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="33" t="s">
         <v>817</v>
       </c>
       <c r="G2" s="33" t="s">
@@ -16561,7 +16558,7 @@
       <c r="E4" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>816</v>
       </c>
       <c r="G4" s="33" t="s">
@@ -16826,7 +16823,7 @@
       <c r="E9" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="40" t="s">
         <v>817</v>
       </c>
       <c r="G9" s="33" t="s">
@@ -16882,7 +16879,7 @@
       <c r="E10" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="40" t="s">
         <v>817</v>
       </c>
       <c r="G10" s="33" t="s">
@@ -17200,7 +17197,7 @@
       <c r="E16" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="40" t="s">
         <v>817</v>
       </c>
       <c r="G16" s="33" t="s">
@@ -17689,7 +17686,7 @@
       <c r="E25" s="33" t="s">
         <v>812</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="40" t="s">
         <v>816</v>
       </c>
       <c r="G25" s="33" t="s">
@@ -17742,7 +17739,7 @@
       <c r="E26" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="40" t="s">
         <v>816</v>
       </c>
       <c r="G26" s="33" t="s">
@@ -17833,23 +17830,23 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:L27">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:M27">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Include necessary population-scale IPTDS in Biomark O&amp;M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Population is a candidate for IPTDS in Biomark O&amp;M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"Keep or consider a low-precision method"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:L27">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -17894,12 +17891,12 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="41" t="s">
         <v>853</v>
       </c>
     </row>

--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEF30A6-98E0-4B3F-8C83-72F9928DBDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C2C853-6FC1-45D5-A98B-15FEFF0F61D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2505" windowWidth="51840" windowHeight="21390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <author>tc={A9F6C9DF-40CA-433C-9246-04A2F3DA5054}</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{49AD47D5-9532-4B79-A036-CA5347F3BDEE}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{49AD47D5-9532-4B79-A036-CA5347F3BDEE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +94,7 @@
     Is there an IPTDS in the population?</t>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{FD6591EB-C611-4A2A-A881-1BD361364436}">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{FD6591EB-C611-4A2A-A881-1BD361364436}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,7 +102,7 @@
     Is it the only high-precision method in the population?</t>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{4C36CCDE-D95D-44DE-BAAB-9564D5F2204D}">
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{4C36CCDE-D95D-44DE-BAAB-9564D5F2204D}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -110,7 +110,7 @@
     Within the same MPG is there another pop with high-precision monitoring? </t>
       </text>
     </comment>
-    <comment ref="J1" authorId="3" shapeId="0" xr:uid="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
+    <comment ref="K1" authorId="3" shapeId="0" xr:uid="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +120,7 @@
     Likely still in "beta" phase, but is effective population size (Ne or Nb) monitoring using juvenile samples a feasible and/or reasonable alternative?</t>
       </text>
     </comment>
-    <comment ref="K1" authorId="4" shapeId="0" xr:uid="{A4989D90-3FBB-44C5-B529-67748B311857}">
+    <comment ref="L1" authorId="4" shapeId="0" xr:uid="{A4989D90-3FBB-44C5-B529-67748B311857}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +128,7 @@
     Is the population only monitored with IPTDS?</t>
       </text>
     </comment>
-    <comment ref="L1" authorId="5" shapeId="0" xr:uid="{E951751E-436D-4FC4-8D1E-998A01F12994}">
+    <comment ref="M1" authorId="5" shapeId="0" xr:uid="{E951751E-436D-4FC4-8D1E-998A01F12994}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +136,7 @@
     Is redundancy necessary?</t>
       </text>
     </comment>
-    <comment ref="F2" authorId="6" shapeId="0" xr:uid="{F1ED4CF2-BA0F-473A-B9DA-C0E601D9107C}">
+    <comment ref="G2" authorId="6" shapeId="0" xr:uid="{F1ED4CF2-BA0F-473A-B9DA-C0E601D9107C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +144,7 @@
     Natural and hatchery origin fish enumerated at the Sawtooth weir, correct?</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="7" shapeId="0" xr:uid="{E9EB6F23-B135-406A-93FB-B99330CCEC4B}">
+    <comment ref="G4" authorId="7" shapeId="0" xr:uid="{E9EB6F23-B135-406A-93FB-B99330CCEC4B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +152,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="8" shapeId="0" xr:uid="{3C5A1271-1E0B-4098-A41B-B7B655811E71}">
+    <comment ref="G6" authorId="8" shapeId="0" xr:uid="{3C5A1271-1E0B-4098-A41B-B7B655811E71}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +160,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F7" authorId="9" shapeId="0" xr:uid="{8013520A-1754-4B81-B622-B57205C1CB26}">
+    <comment ref="G7" authorId="9" shapeId="0" xr:uid="{8013520A-1754-4B81-B622-B57205C1CB26}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +168,7 @@
     Natural and hatchery origin fish enumerated at the Pahsimeroi weir, correct?</t>
       </text>
     </comment>
-    <comment ref="F13" authorId="10" shapeId="0" xr:uid="{8E70B154-F4CA-43CA-9444-BF86A9DC2DE3}">
+    <comment ref="G13" authorId="10" shapeId="0" xr:uid="{8E70B154-F4CA-43CA-9444-BF86A9DC2DE3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +176,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F14" authorId="11" shapeId="0" xr:uid="{1CBF0AE6-896E-445A-892C-9DE9765FA6FF}">
+    <comment ref="G14" authorId="11" shapeId="0" xr:uid="{1CBF0AE6-896E-445A-892C-9DE9765FA6FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +184,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F15" authorId="12" shapeId="0" xr:uid="{0B852492-7DAC-4582-8F02-3A84082A6FD4}">
+    <comment ref="G15" authorId="12" shapeId="0" xr:uid="{0B852492-7DAC-4582-8F02-3A84082A6FD4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +192,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F16" authorId="13" shapeId="0" xr:uid="{7AFA65D9-34FD-4747-9F3F-EC9E8753E9D6}">
+    <comment ref="G16" authorId="13" shapeId="0" xr:uid="{7AFA65D9-34FD-4747-9F3F-EC9E8753E9D6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +200,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F17" authorId="14" shapeId="0" xr:uid="{F4329201-5706-4A87-B6C9-AC934D708772}">
+    <comment ref="G17" authorId="14" shapeId="0" xr:uid="{F4329201-5706-4A87-B6C9-AC934D708772}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +208,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F19" authorId="15" shapeId="0" xr:uid="{A59B7D38-B5FA-4F99-81C9-2216A5E4B317}">
+    <comment ref="G19" authorId="15" shapeId="0" xr:uid="{A59B7D38-B5FA-4F99-81C9-2216A5E4B317}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -217,7 +217,7 @@
 Also has index redd counts.</t>
       </text>
     </comment>
-    <comment ref="L26" authorId="16" shapeId="0" xr:uid="{4EA8EC24-DA87-4C97-BF97-D24B2220400F}">
+    <comment ref="M26" authorId="16" shapeId="0" xr:uid="{4EA8EC24-DA87-4C97-BF97-D24B2220400F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -225,7 +225,7 @@
     Weir is often pulled due to high temperatures later in the run</t>
       </text>
     </comment>
-    <comment ref="F28" authorId="17" shapeId="0" xr:uid="{FEE3224C-11C6-4B9F-9B68-A9C14A001D03}">
+    <comment ref="G28" authorId="17" shapeId="0" xr:uid="{FEE3224C-11C6-4B9F-9B68-A9C14A001D03}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -233,7 +233,7 @@
     A weir operated at Lookingglass Hatchery</t>
       </text>
     </comment>
-    <comment ref="F34" authorId="18" shapeId="0" xr:uid="{47E3FB04-B0BC-475E-96B5-163EB72473FF}">
+    <comment ref="G34" authorId="18" shapeId="0" xr:uid="{47E3FB04-B0BC-475E-96B5-163EB72473FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -241,7 +241,7 @@
     I believe index redd counts (Poole et al. 2022)</t>
       </text>
     </comment>
-    <comment ref="F35" authorId="19" shapeId="0" xr:uid="{A9F6C9DF-40CA-433C-9246-04A2F3DA5054}">
+    <comment ref="G35" authorId="19" shapeId="0" xr:uid="{A9F6C9DF-40CA-433C-9246-04A2F3DA5054}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -524,7 +524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="898">
   <si>
     <t>site</t>
   </si>
@@ -3005,12 +3005,6 @@
     <t>Data Gap</t>
   </si>
   <si>
-    <t>Upgrade?</t>
-  </si>
-  <si>
-    <t>Budget/Responsibility?</t>
-  </si>
-  <si>
     <t>Do not include in Biomark</t>
   </si>
   <si>
@@ -3020,79 +3014,25 @@
     <t>Include in Biomark</t>
   </si>
   <si>
-    <t>Potlatch-consider upgrade; Lapwai - LAP; Big Canyon - Data Gap; Lawyer Creek - Data Gap; Lower SFCLW Tribs - Data Gap</t>
-  </si>
-  <si>
-    <t>LRL, LRU</t>
-  </si>
-  <si>
-    <t>LC1, LC2</t>
-  </si>
-  <si>
     <t>Consider upgrading LC1</t>
   </si>
   <si>
-    <t>SW1, SW2</t>
-  </si>
-  <si>
-    <t>SC1, SC2</t>
-  </si>
-  <si>
     <t>Could support SC3, SC4 instead with CRA as back-up</t>
   </si>
   <si>
-    <t>Wenaha - WEN; Mud Creek - Data Gap</t>
-  </si>
-  <si>
-    <t>UGR, (UGS or CCU)</t>
-  </si>
-  <si>
     <t>Consider upgrading URG</t>
   </si>
   <si>
-    <t>WR1, MR1, WR2</t>
-  </si>
-  <si>
     <t>Consider upgrading WR1</t>
   </si>
   <si>
-    <t>IR1, IR2</t>
-  </si>
-  <si>
     <t>Consider upgrading IR1</t>
   </si>
   <si>
-    <t>Little Salmon - Data Gap</t>
-  </si>
-  <si>
-    <t>SFG, (KRS or EFSF)</t>
-  </si>
-  <si>
-    <t>TAY, Camas - Data Gap, Loon - Data Gap</t>
-  </si>
-  <si>
-    <t>Marsh Creek - MAR; Marble, Pistol, Rapid, Upper Middle, Bear Valley are Data Gaps</t>
-  </si>
-  <si>
     <t>Split between MFSR pops is below Loon Creek</t>
   </si>
   <si>
-    <t>USE, USI</t>
-  </si>
-  <si>
-    <t>Consider upgrading/moving</t>
-  </si>
-  <si>
-    <t>Challis and EFSR - Data Gap</t>
-  </si>
-  <si>
     <t>Consider upgrading</t>
-  </si>
-  <si>
-    <t>YFK VC2, Upper Salmon, Basin, Thompson - Data Gap</t>
-  </si>
-  <si>
-    <t>IPTDS w/in Steelhead MaSA (Figure 2)</t>
   </si>
   <si>
     <t>Population is a candidate for IPTDS in Biomark O&amp;M</t>
@@ -3286,6 +3226,42 @@
   </si>
   <si>
     <t>Monitored w/ Only IPTDS?</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>spring/summer</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Fund VC2, YFK</t>
+  </si>
+  <si>
+    <t>Add IPTDS in lower East Fork Salmon River for low-precision monitoring</t>
+  </si>
+  <si>
+    <t>Fund USE, USI</t>
+  </si>
+  <si>
+    <t>Detections at USE could be used to estimate abundance for SRUMA-s, SREFS-s, and SRPAH-s combined. USI helps estimate detection probabilities. SRPAH-s abundance can be parsed out using Pahsimeroi hatchery weir. An array near mouth of EF Salmon can parse SREFS-s (sort of). SREFS-s and SRUMA-s are difficult to parse without antennas at the bottom of each.</t>
+  </si>
+  <si>
+    <t>Fund LLR, LRW, and HYC</t>
+  </si>
+  <si>
+    <t>Other IPTDS in mainstem Lemhi can be useful to estimate detection probabilities although LLR, LRW, and HYC are all tandem arrays; hopefully in each case arrays are independent at each site</t>
+  </si>
+  <si>
+    <t>Fund NFS</t>
   </si>
 </sst>
 </file>
@@ -3975,68 +3951,68 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G1" dT="2023-06-13T16:06:17.11" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{49AD47D5-9532-4B79-A036-CA5347F3BDEE}">
+  <threadedComment ref="H1" dT="2023-06-13T16:06:17.11" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{49AD47D5-9532-4B79-A036-CA5347F3BDEE}">
     <text>Is there an IPTDS in the population?</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2023-06-13T16:08:39.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{FD6591EB-C611-4A2A-A881-1BD361364436}">
+  <threadedComment ref="I1" dT="2023-06-13T16:08:39.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{FD6591EB-C611-4A2A-A881-1BD361364436}">
     <text>Is it the only high-precision method in the population?</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2023-06-13T16:07:06.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{4C36CCDE-D95D-44DE-BAAB-9564D5F2204D}">
+  <threadedComment ref="J1" dT="2023-06-13T16:07:06.29" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{4C36CCDE-D95D-44DE-BAAB-9564D5F2204D}">
     <text xml:space="preserve">Within the same MPG is there another pop with high-precision monitoring? </text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2023-06-13T16:09:49.13" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
+  <threadedComment ref="K1" dT="2023-06-13T16:09:49.13" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
     <text>Is a low-precision monitoring method possible?</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2023-06-13T19:11:39.33" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{7A7CFB9D-1AC1-4AE5-BB21-C93813B9EB41}" parentId="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
+  <threadedComment ref="K1" dT="2023-06-13T19:11:39.33" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{7A7CFB9D-1AC1-4AE5-BB21-C93813B9EB41}" parentId="{BF3438BA-6763-4FA1-BEA3-D3EFBAD70FAC}">
     <text>Likely still in "beta" phase, but is effective population size (Ne or Nb) monitoring using juvenile samples a feasible and/or reasonable alternative?</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2023-06-13T16:07:38.26" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A4989D90-3FBB-44C5-B529-67748B311857}">
+  <threadedComment ref="L1" dT="2023-06-13T16:07:38.26" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A4989D90-3FBB-44C5-B529-67748B311857}">
     <text>Is the population only monitored with IPTDS?</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2023-06-13T16:10:04.54" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{E951751E-436D-4FC4-8D1E-998A01F12994}">
+  <threadedComment ref="M1" dT="2023-06-13T16:10:04.54" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{E951751E-436D-4FC4-8D1E-998A01F12994}">
     <text>Is redundancy necessary?</text>
   </threadedComment>
-  <threadedComment ref="F2" dT="2023-06-13T20:33:15.71" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{F1ED4CF2-BA0F-473A-B9DA-C0E601D9107C}">
+  <threadedComment ref="G2" dT="2023-06-13T20:33:15.71" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{F1ED4CF2-BA0F-473A-B9DA-C0E601D9107C}">
     <text>Natural and hatchery origin fish enumerated at the Sawtooth weir, correct?</text>
   </threadedComment>
-  <threadedComment ref="F4" dT="2023-06-13T21:39:29.27" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{E9EB6F23-B135-406A-93FB-B99330CCEC4B}">
+  <threadedComment ref="G4" dT="2023-06-13T21:39:29.27" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{E9EB6F23-B135-406A-93FB-B99330CCEC4B}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2023-06-13T20:49:17.71" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{3C5A1271-1E0B-4098-A41B-B7B655811E71}">
+  <threadedComment ref="G6" dT="2023-06-13T20:49:17.71" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{3C5A1271-1E0B-4098-A41B-B7B655811E71}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F7" dT="2023-06-13T20:50:53.67" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{8013520A-1754-4B81-B622-B57205C1CB26}">
+  <threadedComment ref="G7" dT="2023-06-13T20:50:53.67" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{8013520A-1754-4B81-B622-B57205C1CB26}">
     <text>Natural and hatchery origin fish enumerated at the Pahsimeroi weir, correct?</text>
   </threadedComment>
-  <threadedComment ref="F13" dT="2023-06-13T21:39:48.96" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{8E70B154-F4CA-43CA-9444-BF86A9DC2DE3}">
+  <threadedComment ref="G13" dT="2023-06-13T21:39:48.96" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{8E70B154-F4CA-43CA-9444-BF86A9DC2DE3}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F14" dT="2023-06-13T21:39:54.96" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{1CBF0AE6-896E-445A-892C-9DE9765FA6FF}">
+  <threadedComment ref="G14" dT="2023-06-13T21:39:54.96" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{1CBF0AE6-896E-445A-892C-9DE9765FA6FF}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F15" dT="2023-06-13T21:40:01.37" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{0B852492-7DAC-4582-8F02-3A84082A6FD4}">
+  <threadedComment ref="G15" dT="2023-06-13T21:40:01.37" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{0B852492-7DAC-4582-8F02-3A84082A6FD4}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F16" dT="2023-06-13T21:40:26.75" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{7AFA65D9-34FD-4747-9F3F-EC9E8753E9D6}">
+  <threadedComment ref="G16" dT="2023-06-13T21:40:26.75" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{7AFA65D9-34FD-4747-9F3F-EC9E8753E9D6}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F17" dT="2023-06-13T21:40:49.43" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{F4329201-5706-4A87-B6C9-AC934D708772}">
+  <threadedComment ref="G17" dT="2023-06-13T21:40:49.43" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{F4329201-5706-4A87-B6C9-AC934D708772}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F19" dT="2023-06-13T22:01:27.52" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A59B7D38-B5FA-4F99-81C9-2216A5E4B317}">
+  <threadedComment ref="G19" dT="2023-06-13T22:01:27.52" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A59B7D38-B5FA-4F99-81C9-2216A5E4B317}">
     <text>Chamberlain is its own GSI reporting group, but estimate is at LGR, not to river mouth.
 Also has index redd counts.</text>
   </threadedComment>
-  <threadedComment ref="L26" dT="2023-06-14T15:47:57.13" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{4EA8EC24-DA87-4C97-BF97-D24B2220400F}">
+  <threadedComment ref="M26" dT="2023-06-14T15:47:57.13" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{4EA8EC24-DA87-4C97-BF97-D24B2220400F}">
     <text>Weir is often pulled due to high temperatures later in the run</text>
   </threadedComment>
-  <threadedComment ref="F28" dT="2023-06-13T22:02:38.72" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{FEE3224C-11C6-4B9F-9B68-A9C14A001D03}">
+  <threadedComment ref="G28" dT="2023-06-13T22:02:38.72" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{FEE3224C-11C6-4B9F-9B68-A9C14A001D03}">
     <text>A weir operated at Lookingglass Hatchery</text>
   </threadedComment>
-  <threadedComment ref="F34" dT="2023-06-13T22:05:52.61" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{47E3FB04-B0BC-475E-96B5-163EB72473FF}">
+  <threadedComment ref="G34" dT="2023-06-13T22:05:52.61" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{47E3FB04-B0BC-475E-96B5-163EB72473FF}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
-  <threadedComment ref="F35" dT="2023-06-13T22:05:52.61" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A9F6C9DF-40CA-433C-9246-04A2F3DA5054}">
+  <threadedComment ref="G35" dT="2023-06-13T22:05:52.61" personId="{B892FBF5-7069-439C-8059-328656C6D0E9}" id="{A9F6C9DF-40CA-433C-9246-04A2F3DA5054}">
     <text>I believe index redd counts (Poole et al. 2022)</text>
   </threadedComment>
 </ThreadedComments>
@@ -4125,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A42020D-9532-4D3F-8F80-EE8C6D0895CA}">
   <dimension ref="B1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4153,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
@@ -4471,7 +4447,7 @@
         <v>639</v>
       </c>
       <c r="D38" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="K38" s="33"/>
     </row>
@@ -4483,7 +4459,7 @@
         <v>640</v>
       </c>
       <c r="D39" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="K39" s="33"/>
     </row>
@@ -4519,7 +4495,7 @@
         <v>643</v>
       </c>
       <c r="D42" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="K42" s="33"/>
     </row>
@@ -4531,7 +4507,7 @@
         <v>644</v>
       </c>
       <c r="D43" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="K43" s="33"/>
     </row>
@@ -14451,10 +14427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B48E5-B2D0-4B19-967E-72BE4D4B4F25}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14463,20 +14439,21 @@
     <col min="2" max="2" width="22.90625" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.26953125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7265625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6328125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="67.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6328125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="83" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>774</v>
       </c>
@@ -14490,40 +14467,43 @@
         <v>803</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>897</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>905</v>
+        <v>835</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="M1" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="O1" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>775</v>
       </c>
@@ -14537,22 +14517,22 @@
         <v>758</v>
       </c>
       <c r="E2" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>857</v>
-      </c>
       <c r="H2" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K2" s="33" t="s">
         <v>238</v>
@@ -14560,11 +14540,14 @@
       <c r="L2" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>775</v>
       </c>
@@ -14578,34 +14561,37 @@
         <v>185</v>
       </c>
       <c r="E3" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H3" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M3" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>775</v>
       </c>
@@ -14619,34 +14605,37 @@
         <v>751</v>
       </c>
       <c r="E4" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H4" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>775</v>
       </c>
@@ -14660,19 +14649,19 @@
         <v>754</v>
       </c>
       <c r="E5" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H5" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="J5" s="33" t="s">
         <v>238</v>
@@ -14680,11 +14669,14 @@
       <c r="K5" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="L5" s="40" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L5" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>775</v>
       </c>
@@ -14698,34 +14690,37 @@
         <v>790</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H6" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>836</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>775</v>
       </c>
@@ -14739,22 +14734,22 @@
         <v>752</v>
       </c>
       <c r="E7" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>857</v>
-      </c>
       <c r="H7" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>238</v>
@@ -14762,11 +14757,14 @@
       <c r="L7" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>775</v>
       </c>
@@ -14780,34 +14778,37 @@
         <v>612</v>
       </c>
       <c r="E8" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H8" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M8" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>775</v>
       </c>
@@ -14821,34 +14822,37 @@
         <v>181</v>
       </c>
       <c r="E9" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H9" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M9" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
         <v>775</v>
       </c>
@@ -14862,14 +14866,14 @@
         <v>615</v>
       </c>
       <c r="E10" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>812</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="G10" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H10" s="33" t="s">
         <v>238</v>
       </c>
@@ -14888,9 +14892,12 @@
       <c r="M10" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N10" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>775</v>
       </c>
@@ -14904,19 +14911,19 @@
         <v>611</v>
       </c>
       <c r="E11" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H11" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>238</v>
@@ -14924,11 +14931,14 @@
       <c r="K11" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="L11" s="40" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>775</v>
       </c>
@@ -14942,34 +14952,37 @@
         <v>158</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F12" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="G12" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H12" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M12" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>775</v>
       </c>
@@ -14983,34 +14996,37 @@
         <v>788</v>
       </c>
       <c r="E13" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="G13" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H13" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>775</v>
       </c>
@@ -15024,34 +15040,37 @@
         <v>784</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="G14" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H14" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>775</v>
       </c>
@@ -15065,34 +15084,37 @@
         <v>786</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="G15" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H15" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>775</v>
       </c>
@@ -15106,34 +15128,37 @@
         <v>782</v>
       </c>
       <c r="E16" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="G16" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H16" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>775</v>
       </c>
@@ -15147,34 +15172,37 @@
         <v>778</v>
       </c>
       <c r="E17" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="G17" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H17" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>775</v>
       </c>
@@ -15188,34 +15216,37 @@
         <v>157</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="G18" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H18" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="L18" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M18" s="16" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M18" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
         <v>775</v>
       </c>
@@ -15229,34 +15260,37 @@
         <v>780</v>
       </c>
       <c r="E19" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="G19" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H19" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
         <v>775</v>
       </c>
@@ -15270,34 +15304,37 @@
         <v>738</v>
       </c>
       <c r="E20" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="G20" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H20" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
         <v>775</v>
       </c>
@@ -15311,34 +15348,37 @@
         <v>160</v>
       </c>
       <c r="E21" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="F21" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="G21" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H21" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L21" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M21" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M21" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>775</v>
       </c>
@@ -15352,34 +15392,37 @@
         <v>161</v>
       </c>
       <c r="E22" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="F22" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="G22" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H22" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L22" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M22" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>775</v>
       </c>
@@ -15393,34 +15436,37 @@
         <v>735</v>
       </c>
       <c r="E23" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F23" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="G23" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H23" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>856</v>
+        <v>238</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>857</v>
+        <v>238</v>
       </c>
       <c r="L23" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>837</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>775</v>
       </c>
@@ -15434,14 +15480,14 @@
         <v>154</v>
       </c>
       <c r="E24" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="G24" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H24" s="33" t="s">
         <v>238</v>
       </c>
@@ -15460,9 +15506,12 @@
       <c r="M24" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N24" s="33"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N24" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>775</v>
       </c>
@@ -15476,34 +15525,37 @@
         <v>760</v>
       </c>
       <c r="E25" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="G25" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H25" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="L25" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M25" s="16" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M25" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>775</v>
       </c>
@@ -15517,19 +15569,19 @@
         <v>731</v>
       </c>
       <c r="E26" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="G26" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H26" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>238</v>
@@ -15538,13 +15590,16 @@
         <v>238</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
         <v>775</v>
       </c>
@@ -15558,19 +15613,19 @@
         <v>147</v>
       </c>
       <c r="E27" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="G27" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H27" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>238</v>
@@ -15578,11 +15633,14 @@
       <c r="K27" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="L27" s="40" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L27" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>775</v>
       </c>
@@ -15596,14 +15654,14 @@
         <v>776</v>
       </c>
       <c r="E28" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F28" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="G28" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G28" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H28" s="33" t="s">
         <v>238</v>
       </c>
@@ -15622,9 +15680,12 @@
       <c r="M28" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="33"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
         <v>775</v>
       </c>
@@ -15638,34 +15699,37 @@
         <v>150</v>
       </c>
       <c r="E29" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="G29" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H29" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L29" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M29" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M29" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
         <v>775</v>
       </c>
@@ -15679,34 +15743,37 @@
         <v>729</v>
       </c>
       <c r="E30" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="G30" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H30" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>238</v>
+        <v>836</v>
       </c>
       <c r="L30" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M30" s="16" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M30" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
         <v>775</v>
       </c>
@@ -15720,34 +15787,37 @@
         <v>145</v>
       </c>
       <c r="E31" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F31" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="G31" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G31" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H31" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="L31" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M31" s="16" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M31" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>775</v>
       </c>
@@ -15761,14 +15831,14 @@
         <v>162</v>
       </c>
       <c r="E32" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>813</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="G32" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H32" s="33" t="s">
         <v>238</v>
       </c>
@@ -15787,9 +15857,12 @@
       <c r="M32" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N32" s="33"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N32" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" s="33"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>775</v>
       </c>
@@ -15803,22 +15876,22 @@
         <v>164</v>
       </c>
       <c r="E33" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>815</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="G33" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G33" s="33" t="s">
-        <v>856</v>
-      </c>
       <c r="H33" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>238</v>
+        <v>837</v>
       </c>
       <c r="K33" s="33" t="s">
         <v>238</v>
@@ -15826,11 +15899,14 @@
       <c r="L33" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="M33" s="16" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M33" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
         <v>775</v>
       </c>
@@ -15844,14 +15920,14 @@
         <v>801</v>
       </c>
       <c r="E34" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F34" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="G34" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G34" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H34" s="33" t="s">
         <v>238</v>
       </c>
@@ -15870,9 +15946,12 @@
       <c r="M34" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N34" s="33"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>775</v>
       </c>
@@ -15886,14 +15965,14 @@
         <v>797</v>
       </c>
       <c r="E35" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="G35" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G35" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H35" s="33" t="s">
         <v>238</v>
       </c>
@@ -15912,9 +15991,12 @@
       <c r="M35" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N35" s="33"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O35" s="33"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
         <v>775</v>
       </c>
@@ -15928,14 +16010,14 @@
         <v>795</v>
       </c>
       <c r="E36" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="G36" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G36" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H36" s="33" t="s">
         <v>238</v>
       </c>
@@ -15954,9 +16036,12 @@
       <c r="M36" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N36" s="33"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N36" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>775</v>
       </c>
@@ -15970,14 +16055,14 @@
         <v>139</v>
       </c>
       <c r="E37" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F37" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="G37" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G37" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H37" s="33" t="s">
         <v>238</v>
       </c>
@@ -15996,9 +16081,12 @@
       <c r="M37" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N37" s="33"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N37" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O37" s="33"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>775</v>
       </c>
@@ -16012,14 +16100,14 @@
         <v>140</v>
       </c>
       <c r="E38" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F38" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="G38" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G38" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H38" s="33" t="s">
         <v>238</v>
       </c>
@@ -16038,9 +16126,12 @@
       <c r="M38" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N38" s="33"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N38" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O38" s="33"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>775</v>
       </c>
@@ -16054,14 +16145,14 @@
         <v>799</v>
       </c>
       <c r="E39" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F39" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="G39" s="33" t="s">
         <v>818</v>
       </c>
-      <c r="G39" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H39" s="33" t="s">
         <v>238</v>
       </c>
@@ -16080,9 +16171,12 @@
       <c r="M39" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N39" s="33"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N39" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O39" s="33"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
         <v>775</v>
       </c>
@@ -16096,14 +16190,14 @@
         <v>793</v>
       </c>
       <c r="E40" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="G40" s="33" t="s">
         <v>818</v>
       </c>
-      <c r="G40" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H40" s="33" t="s">
         <v>238</v>
       </c>
@@ -16122,9 +16216,12 @@
       <c r="M40" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N40" s="33"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N40" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O40" s="33"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>775</v>
       </c>
@@ -16138,14 +16235,14 @@
         <v>723</v>
       </c>
       <c r="E41" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="G41" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G41" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H41" s="33" t="s">
         <v>238</v>
       </c>
@@ -16164,9 +16261,12 @@
       <c r="M41" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N41" s="33"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N41" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O41" s="33"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>775</v>
       </c>
@@ -16180,14 +16280,14 @@
         <v>610</v>
       </c>
       <c r="E42" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="G42" s="33" t="s">
         <v>816</v>
       </c>
-      <c r="G42" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H42" s="33" t="s">
         <v>238</v>
       </c>
@@ -16206,9 +16306,12 @@
       <c r="M42" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N42" s="33"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N42" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O42" s="33"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
         <v>775</v>
       </c>
@@ -16222,14 +16325,14 @@
         <v>717</v>
       </c>
       <c r="E43" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="G43" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G43" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H43" s="33" t="s">
         <v>238</v>
       </c>
@@ -16248,9 +16351,12 @@
       <c r="M43" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N43" s="33"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N43" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O43" s="33"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="33" t="s">
         <v>775</v>
       </c>
@@ -16264,14 +16370,14 @@
         <v>713</v>
       </c>
       <c r="E44" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="F44" s="33" t="s">
         <v>814</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="G44" s="33" t="s">
         <v>817</v>
       </c>
-      <c r="G44" s="33" t="s">
-        <v>238</v>
-      </c>
       <c r="H44" s="33" t="s">
         <v>238</v>
       </c>
@@ -16290,10 +16396,13 @@
       <c r="M44" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="N44" s="33"/>
+      <c r="N44" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O44" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:L44">
+  <conditionalFormatting sqref="H2:M44">
     <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -16301,7 +16410,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M44">
+  <conditionalFormatting sqref="N2:N44">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Include necessary population-scale IPTDS in Biomark O&amp;M"</formula>
     </cfRule>
@@ -16321,7 +16430,7 @@
           <x14:formula1>
             <xm:f>validation!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M44</xm:sqref>
+          <xm:sqref>N2:N44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16331,13 +16440,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175A1EF7-D6F6-40B5-8CC5-720EBF0869DB}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16356,16 +16465,13 @@
     <col min="12" max="12" width="21.6328125" style="33" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="51.26953125" style="33" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="114.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="104" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="129.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="114.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.1796875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>774</v>
       </c>
@@ -16385,52 +16491,43 @@
         <v>772</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>773</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="U1" s="6" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>804</v>
       </c>
@@ -16456,37 +16553,37 @@
         <v>238</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>238</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="L2" s="33" t="s">
         <v>238</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>862</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>863</v>
-      </c>
-      <c r="R2" t="s">
-        <v>847</v>
-      </c>
-      <c r="U2" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>891</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>804</v>
       </c>
@@ -16524,25 +16621,25 @@
         <v>238</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>864</v>
-      </c>
-      <c r="R3" t="s">
-        <v>845</v>
-      </c>
-      <c r="U3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>804</v>
       </c>
@@ -16562,13 +16659,13 @@
         <v>816</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>238</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>238</v>
@@ -16580,25 +16677,25 @@
         <v>238</v>
       </c>
       <c r="M4" s="33" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>865</v>
-      </c>
-      <c r="R4" t="s">
-        <v>843</v>
-      </c>
-      <c r="U4" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>893</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>804</v>
       </c>
@@ -16618,16 +16715,16 @@
         <v>816</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>238</v>
@@ -16636,22 +16733,25 @@
         <v>238</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>866</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>804</v>
       </c>
@@ -16671,16 +16771,16 @@
         <v>816</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>238</v>
@@ -16689,22 +16789,22 @@
         <v>238</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>867</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>804</v>
       </c>
@@ -16724,16 +16824,16 @@
         <v>816</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>238</v>
@@ -16742,22 +16842,19 @@
         <v>238</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>804</v>
       </c>
@@ -16795,19 +16892,19 @@
         <v>238</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="P8" s="33" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>804</v>
       </c>
@@ -16827,7 +16924,7 @@
         <v>817</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>238</v>
@@ -16839,31 +16936,28 @@
         <v>238</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>238</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>872</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>873</v>
-      </c>
-      <c r="R9" t="s">
-        <v>841</v>
-      </c>
-      <c r="U9" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>804</v>
       </c>
@@ -16883,7 +16977,7 @@
         <v>817</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>238</v>
@@ -16895,28 +16989,25 @@
         <v>238</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>238</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>874</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>875</v>
-      </c>
-      <c r="R10" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>804</v>
       </c>
@@ -16936,40 +17027,37 @@
         <v>816</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>836</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="O11" s="16" t="s">
         <v>856</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>856</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>857</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>850</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>876</v>
-      </c>
-      <c r="P11" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P11" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>804</v>
       </c>
@@ -16989,16 +17077,16 @@
         <v>816</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>238</v>
@@ -17007,22 +17095,19 @@
         <v>238</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>850</v>
       </c>
-      <c r="N12" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>870</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="P12" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>804</v>
       </c>
@@ -17060,22 +17145,19 @@
         <v>238</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>877</v>
-      </c>
-      <c r="R13" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O13" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>804</v>
       </c>
@@ -17095,16 +17177,16 @@
         <v>816</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K14" s="33" t="s">
         <v>238</v>
@@ -17113,22 +17195,19 @@
         <v>238</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>878</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R14" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>804</v>
       </c>
@@ -17148,16 +17227,16 @@
         <v>816</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K15" s="33" t="s">
         <v>238</v>
@@ -17166,22 +17245,19 @@
         <v>238</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>879</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R15" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>804</v>
       </c>
@@ -17207,37 +17283,34 @@
         <v>238</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J16" s="33" t="s">
         <v>238</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="L16" s="33" t="s">
         <v>238</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N16" s="33" t="s">
+        <v>821</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="R16" s="16" t="s">
         <v>823</v>
       </c>
-      <c r="O16" s="33" t="s">
-        <v>880</v>
-      </c>
-      <c r="P16" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R16" t="s">
-        <v>829</v>
-      </c>
-      <c r="U16" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>804</v>
       </c>
@@ -17257,16 +17330,16 @@
         <v>816</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K17" s="33" t="s">
         <v>238</v>
@@ -17275,25 +17348,22 @@
         <v>238</v>
       </c>
       <c r="M17" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R17" t="s">
-        <v>826</v>
-      </c>
-      <c r="U17" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>804</v>
       </c>
@@ -17336,14 +17406,14 @@
       <c r="N18" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O18" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>804</v>
       </c>
@@ -17369,34 +17439,31 @@
         <v>238</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J19" s="33" t="s">
         <v>238</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="L19" s="33" t="s">
         <v>238</v>
       </c>
       <c r="M19" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="R19" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>804</v>
       </c>
@@ -17416,16 +17483,16 @@
         <v>816</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K20" s="33" t="s">
         <v>238</v>
@@ -17434,25 +17501,22 @@
         <v>238</v>
       </c>
       <c r="M20" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>884</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R20" t="s">
-        <v>836</v>
-      </c>
-      <c r="U20" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>804</v>
       </c>
@@ -17472,16 +17536,16 @@
         <v>816</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I21" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K21" s="33" t="s">
         <v>238</v>
@@ -17490,25 +17554,22 @@
         <v>238</v>
       </c>
       <c r="M21" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O21" s="33" t="s">
-        <v>886</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>885</v>
-      </c>
-      <c r="R21" t="s">
-        <v>832</v>
-      </c>
-      <c r="U21" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>804</v>
       </c>
@@ -17528,16 +17589,16 @@
         <v>816</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K22" s="33" t="s">
         <v>238</v>
@@ -17546,25 +17607,22 @@
         <v>238</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>887</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R22" t="s">
-        <v>834</v>
-      </c>
-      <c r="U22" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>867</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>804</v>
       </c>
@@ -17584,16 +17642,16 @@
         <v>816</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="K23" s="33" t="s">
         <v>238</v>
@@ -17602,22 +17660,19 @@
         <v>238</v>
       </c>
       <c r="M23" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>888</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>868</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>804</v>
       </c>
@@ -17643,34 +17698,31 @@
         <v>238</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J24" s="33" t="s">
         <v>238</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="L24" s="33" t="s">
         <v>238</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>889</v>
-      </c>
-      <c r="P24" s="33" t="s">
-        <v>890</v>
-      </c>
-      <c r="R24" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+        <v>821</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>804</v>
       </c>
@@ -17711,19 +17763,16 @@
         <v>238</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>858</v>
-      </c>
-      <c r="O25" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="P25" s="33" t="s">
-        <v>891</v>
-      </c>
-      <c r="R25" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>804</v>
       </c>
@@ -17743,16 +17792,16 @@
         <v>816</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="K26" s="33" t="s">
         <v>238</v>
@@ -17761,22 +17810,22 @@
         <v>238</v>
       </c>
       <c r="M26" s="33" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="N26" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="O26" s="33" t="s">
-        <v>893</v>
-      </c>
-      <c r="P26" s="33" t="s">
-        <v>892</v>
-      </c>
-      <c r="U26" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+        <v>819</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>873</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>872</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>804</v>
       </c>
@@ -17796,13 +17845,13 @@
         <v>816</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>238</v>
@@ -17814,19 +17863,16 @@
         <v>238</v>
       </c>
       <c r="M27" s="33" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>823</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>868</v>
-      </c>
-      <c r="P27" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="R27" t="s">
-        <v>96</v>
+        <v>821</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -17872,32 +17918,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">

--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C2C853-6FC1-45D5-A98B-15FEFF0F61D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E3034A-88D8-4FDD-96A6-1A522C94A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2505" windowWidth="51840" windowHeight="21390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-2385" windowWidth="25800" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -524,7 +524,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="900">
   <si>
     <t>site</t>
   </si>
@@ -3262,6 +3262,12 @@
   </si>
   <si>
     <t>Fund NFS</t>
+  </si>
+  <si>
+    <t>ptagis_active</t>
+  </si>
+  <si>
+    <t>antenna_count</t>
   </si>
 </sst>
 </file>
@@ -4800,54 +4806,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AI101"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.6328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" style="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.1796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.90625" style="33" customWidth="1"/>
-    <col min="24" max="24" width="18" style="33" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.453125" style="33" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" style="33" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.36328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.08984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.26953125" style="33" customWidth="1"/>
-    <col min="34" max="34" width="16" customWidth="1"/>
+    <col min="5" max="5" width="33.36328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.36328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="49.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.36328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="34" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.08984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.08984375" style="33" customWidth="1"/>
+    <col min="28" max="28" width="15.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.36328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.453125" style="33" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.6328125" style="33" customWidth="1"/>
+    <col min="35" max="35" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>214</v>
       </c>
@@ -4924,34 +4931,37 @@
         <v>621</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>535</v>
+        <v>898</v>
       </c>
       <c r="AA1" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="33" t="s">
+        <v>899</v>
+      </c>
+      <c r="AC1" s="35" t="s">
         <v>536</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AD1" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AE1" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AF1" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AG1" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AH1" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>96</v>
       </c>
@@ -5030,23 +5040,26 @@
       <c r="AA2" s="33">
         <v>3</v>
       </c>
-      <c r="AB2" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AB2" s="33">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD2" s="36" t="s">
+      <c r="AE2" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE2" s="36"/>
       <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" t="s">
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>97</v>
       </c>
@@ -5125,23 +5138,26 @@
       <c r="AA3" s="33">
         <v>2</v>
       </c>
-      <c r="AB3" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="36" t="s">
+      <c r="AB3" s="33">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD3" s="36" t="s">
+      <c r="AE3" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" t="s">
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>98</v>
       </c>
@@ -5220,23 +5236,26 @@
       <c r="AA4" s="33">
         <v>2</v>
       </c>
-      <c r="AB4" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AB4" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD4" s="36" t="s">
+      <c r="AE4" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE4" s="36"/>
       <c r="AF4" s="36"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" t="s">
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>99</v>
       </c>
@@ -5315,21 +5334,24 @@
       <c r="AA5" s="33">
         <v>3</v>
       </c>
-      <c r="AB5" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AB5" s="33">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE5" s="36"/>
       <c r="AF5" s="36"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" t="s">
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>100</v>
       </c>
@@ -5408,23 +5430,26 @@
       <c r="AA6" s="33">
         <v>2</v>
       </c>
-      <c r="AB6" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="36" t="s">
+      <c r="AB6" s="33">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD6" s="36" t="s">
+      <c r="AE6" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE6" s="36"/>
       <c r="AF6" s="36"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" t="s">
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>239</v>
       </c>
@@ -5495,19 +5520,22 @@
       <c r="AA7" s="33">
         <v>2</v>
       </c>
-      <c r="AB7" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="36"/>
+      <c r="AB7" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
       <c r="AF7" s="36"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" t="s">
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
@@ -5586,23 +5614,26 @@
       <c r="AA8" s="33">
         <v>3</v>
       </c>
-      <c r="AB8" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="36" t="s">
+      <c r="AB8" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD8" s="36" t="s">
+      <c r="AE8" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE8" s="36"/>
       <c r="AF8" s="36"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" t="s">
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>43</v>
       </c>
@@ -5681,23 +5712,26 @@
       <c r="AA9" s="33">
         <v>3</v>
       </c>
-      <c r="AB9" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="36" t="s">
+      <c r="AB9" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD9" s="36" t="s">
+      <c r="AE9" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE9" s="36"/>
       <c r="AF9" s="36"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" t="s">
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
         <v>45</v>
       </c>
@@ -5776,23 +5810,26 @@
       <c r="AA10" s="33">
         <v>2</v>
       </c>
-      <c r="AB10" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="36" t="s">
+      <c r="AB10" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD10" s="36" t="s">
+      <c r="AE10" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE10" s="36"/>
       <c r="AF10" s="36"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" t="s">
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>44</v>
       </c>
@@ -5871,23 +5908,26 @@
       <c r="AA11" s="33">
         <v>2</v>
       </c>
-      <c r="AB11" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="36" t="s">
+      <c r="AB11" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD11" s="36" t="s">
+      <c r="AE11" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" t="s">
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>46</v>
       </c>
@@ -5966,25 +6006,28 @@
       <c r="AA12" s="33">
         <v>1</v>
       </c>
-      <c r="AB12" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="36" t="s">
+      <c r="AB12" s="33">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD12" s="36" t="s">
+      <c r="AE12" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE12" s="36"/>
       <c r="AF12" s="36"/>
-      <c r="AG12" s="37" t="s">
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>47</v>
       </c>
@@ -6063,23 +6106,26 @@
       <c r="AA13" s="33">
         <v>2</v>
       </c>
-      <c r="AB13" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="36" t="s">
+      <c r="AB13" s="33">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD13" s="36" t="s">
+      <c r="AE13" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE13" s="36"/>
       <c r="AF13" s="36"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" t="s">
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>48</v>
       </c>
@@ -6158,27 +6204,30 @@
       <c r="AA14" s="33">
         <v>2</v>
       </c>
-      <c r="AB14" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="36" t="s">
+      <c r="AB14" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD14" s="36" t="s">
+      <c r="AE14" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE14" s="36" t="s">
+      <c r="AF14" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="37" t="s">
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>49</v>
       </c>
@@ -6257,25 +6306,28 @@
       <c r="AA15" s="33">
         <v>2</v>
       </c>
-      <c r="AB15" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="36" t="s">
+      <c r="AB15" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD15" s="36" t="s">
+      <c r="AE15" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE15" s="36" t="s">
+      <c r="AF15" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" t="s">
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>51</v>
       </c>
@@ -6354,25 +6406,28 @@
       <c r="AA16" s="33">
         <v>2</v>
       </c>
-      <c r="AB16" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="36" t="s">
+      <c r="AB16" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD16" s="36" t="s">
+      <c r="AE16" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE16" s="36" t="s">
+      <c r="AF16" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" t="s">
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
         <v>50</v>
       </c>
@@ -6451,23 +6506,26 @@
       <c r="AA17" s="33">
         <v>2</v>
       </c>
-      <c r="AB17" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="36" t="s">
+      <c r="AB17" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD17" s="36" t="s">
+      <c r="AE17" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE17" s="36"/>
       <c r="AF17" s="36"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" t="s">
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>52</v>
       </c>
@@ -6546,23 +6604,26 @@
       <c r="AA18" s="33">
         <v>2</v>
       </c>
-      <c r="AB18" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="36" t="s">
+      <c r="AB18" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD18" s="36" t="s">
+      <c r="AE18" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE18" s="36"/>
       <c r="AF18" s="36"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" t="s">
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
         <v>56</v>
       </c>
@@ -6641,25 +6702,28 @@
       <c r="AA19" s="33">
         <v>1</v>
       </c>
-      <c r="AB19" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="36" t="s">
+      <c r="AB19" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD19" s="36" t="s">
+      <c r="AE19" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE19" s="36"/>
       <c r="AF19" s="36"/>
-      <c r="AG19" s="37" t="s">
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
         <v>57</v>
       </c>
@@ -6738,25 +6802,28 @@
       <c r="AA20" s="33">
         <v>1</v>
       </c>
-      <c r="AB20" s="34" t="b">
+      <c r="AB20" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC20" s="36" t="s">
+      <c r="AD20" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD20" s="36" t="s">
+      <c r="AE20" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE20" s="36"/>
       <c r="AF20" s="36"/>
-      <c r="AG20" s="37" t="s">
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
         <v>280</v>
       </c>
@@ -6827,19 +6894,22 @@
       <c r="AA21" s="33">
         <v>2</v>
       </c>
-      <c r="AB21" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="36"/>
+      <c r="AB21" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="AD21" s="36"/>
       <c r="AE21" s="36"/>
       <c r="AF21" s="36"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" t="s">
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>284</v>
       </c>
@@ -6910,19 +6980,22 @@
       <c r="AA22" s="33">
         <v>2</v>
       </c>
-      <c r="AB22" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="36"/>
+      <c r="AB22" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="AD22" s="36"/>
       <c r="AE22" s="36"/>
       <c r="AF22" s="36"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" t="s">
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>60</v>
       </c>
@@ -7001,25 +7074,28 @@
       <c r="AA23" s="33">
         <v>1</v>
       </c>
-      <c r="AB23" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="36" t="s">
+      <c r="AB23" s="33">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD23" s="36" t="s">
+      <c r="AE23" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE23" s="36"/>
       <c r="AF23" s="36"/>
-      <c r="AG23" s="37" t="s">
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>61</v>
       </c>
@@ -7098,25 +7174,28 @@
       <c r="AA24" s="33">
         <v>1</v>
       </c>
-      <c r="AB24" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="36" t="s">
+      <c r="AB24" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD24" s="36" t="s">
+      <c r="AE24" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE24" s="36"/>
       <c r="AF24" s="36"/>
-      <c r="AG24" s="37" t="s">
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
         <v>53</v>
       </c>
@@ -7195,23 +7274,26 @@
       <c r="AA25" s="33">
         <v>1</v>
       </c>
-      <c r="AB25" s="34" t="b">
+      <c r="AB25" s="33">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC25" s="36" t="s">
+      <c r="AD25" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD25" s="36" t="s">
+      <c r="AE25" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE25" s="36"/>
       <c r="AF25" s="36"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" t="s">
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>54</v>
       </c>
@@ -7290,25 +7372,28 @@
       <c r="AA26" s="33">
         <v>1</v>
       </c>
-      <c r="AB26" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="36" t="s">
+      <c r="AB26" s="33">
+        <v>13</v>
+      </c>
+      <c r="AC26" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD26" s="36" t="s">
+      <c r="AE26" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE26" s="36"/>
       <c r="AF26" s="36"/>
-      <c r="AG26" s="37" t="s">
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
         <v>55</v>
       </c>
@@ -7387,25 +7472,28 @@
       <c r="AA27" s="33">
         <v>1</v>
       </c>
-      <c r="AB27" s="34" t="b">
+      <c r="AB27" s="33">
+        <v>18</v>
+      </c>
+      <c r="AC27" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC27" s="36" t="s">
+      <c r="AD27" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD27" s="36" t="s">
+      <c r="AE27" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE27" s="36"/>
       <c r="AF27" s="36"/>
-      <c r="AG27" s="37" t="s">
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>58</v>
       </c>
@@ -7484,25 +7572,28 @@
       <c r="AA28" s="33">
         <v>1</v>
       </c>
-      <c r="AB28" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="36" t="s">
+      <c r="AB28" s="33">
+        <v>19</v>
+      </c>
+      <c r="AC28" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD28" s="36" t="s">
+      <c r="AE28" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE28" s="36"/>
       <c r="AF28" s="36"/>
-      <c r="AG28" s="37" t="s">
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
         <v>59</v>
       </c>
@@ -7581,25 +7672,28 @@
       <c r="AA29" s="33">
         <v>1</v>
       </c>
-      <c r="AB29" s="34" t="b">
+      <c r="AB29" s="33">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC29" s="36" t="s">
+      <c r="AD29" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD29" s="36" t="s">
+      <c r="AE29" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE29" s="36"/>
       <c r="AF29" s="36"/>
-      <c r="AG29" s="37" t="s">
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
         <v>62</v>
       </c>
@@ -7678,25 +7772,28 @@
       <c r="AA30" s="33">
         <v>1</v>
       </c>
-      <c r="AB30" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="36" t="s">
+      <c r="AB30" s="33">
+        <v>5</v>
+      </c>
+      <c r="AC30" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD30" s="36" t="s">
+      <c r="AE30" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE30" s="36" t="s">
+      <c r="AF30" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" t="s">
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
         <v>63</v>
       </c>
@@ -7775,25 +7872,28 @@
       <c r="AA31" s="33">
         <v>2</v>
       </c>
-      <c r="AB31" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="36" t="s">
+      <c r="AB31" s="33">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD31" s="36" t="s">
+      <c r="AE31" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE31" s="36" t="s">
+      <c r="AF31" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" t="s">
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
         <v>64</v>
       </c>
@@ -7872,25 +7972,28 @@
       <c r="AA32" s="33">
         <v>2</v>
       </c>
-      <c r="AB32" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="36" t="s">
+      <c r="AB32" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD32" s="36" t="s">
+      <c r="AE32" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE32" s="36" t="s">
+      <c r="AF32" s="36" t="s">
         <v>575</v>
       </c>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" t="s">
+      <c r="AG32" s="36"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>92</v>
       </c>
@@ -7969,25 +8072,28 @@
       <c r="AA33" s="33">
         <v>3</v>
       </c>
-      <c r="AB33" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="36" t="s">
+      <c r="AB33" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD33" s="36" t="s">
+      <c r="AE33" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE33" s="36" t="s">
+      <c r="AF33" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" t="s">
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
         <v>93</v>
       </c>
@@ -8066,25 +8172,28 @@
       <c r="AA34" s="33">
         <v>2</v>
       </c>
-      <c r="AB34" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="36" t="s">
+      <c r="AB34" s="33">
+        <v>5</v>
+      </c>
+      <c r="AC34" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD34" s="36" t="s">
+      <c r="AE34" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE34" s="36" t="s">
+      <c r="AF34" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" t="s">
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>94</v>
       </c>
@@ -8163,25 +8272,28 @@
       <c r="AA35" s="33">
         <v>3</v>
       </c>
-      <c r="AB35" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="36" t="s">
+      <c r="AB35" s="33">
+        <v>7</v>
+      </c>
+      <c r="AC35" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD35" s="36" t="s">
+      <c r="AE35" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE35" s="36" t="s">
+      <c r="AF35" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" t="s">
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
         <v>95</v>
       </c>
@@ -8260,25 +8372,28 @@
       <c r="AA36" s="33">
         <v>3</v>
       </c>
-      <c r="AB36" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="36" t="s">
+      <c r="AB36" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD36" s="36" t="s">
+      <c r="AE36" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE36" s="36" t="s">
+      <c r="AF36" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" t="s">
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>65</v>
       </c>
@@ -8357,23 +8472,26 @@
       <c r="AA37" s="33">
         <v>2</v>
       </c>
-      <c r="AB37" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="36" t="s">
+      <c r="AB37" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD37" s="36" t="s">
+      <c r="AE37" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE37" s="36"/>
       <c r="AF37" s="36"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" t="s">
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>66</v>
       </c>
@@ -8452,25 +8570,28 @@
       <c r="AA38" s="33">
         <v>2</v>
       </c>
-      <c r="AB38" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="36" t="s">
+      <c r="AB38" s="33">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD38" s="36" t="s">
+      <c r="AE38" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36" t="s">
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="AG38" s="37"/>
-      <c r="AH38" t="s">
+      <c r="AH38" s="37"/>
+      <c r="AI38" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>71</v>
       </c>
@@ -8549,27 +8670,30 @@
       <c r="AA39" s="33">
         <v>1</v>
       </c>
-      <c r="AB39" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="36" t="s">
+      <c r="AB39" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD39" s="36" t="s">
+      <c r="AE39" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36" t="s">
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG39" s="37" t="s">
+      <c r="AH39" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
         <v>72</v>
       </c>
@@ -8648,27 +8772,30 @@
       <c r="AA40" s="33">
         <v>2</v>
       </c>
-      <c r="AB40" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="36" t="s">
+      <c r="AB40" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD40" s="36" t="s">
+      <c r="AE40" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36" t="s">
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="AG40" s="37" t="s">
+      <c r="AH40" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="AH40" t="s">
+      <c r="AI40" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>73</v>
       </c>
@@ -8747,27 +8874,30 @@
       <c r="AA41" s="33">
         <v>2</v>
       </c>
-      <c r="AB41" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="36" t="s">
+      <c r="AB41" s="33">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD41" s="36" t="s">
+      <c r="AE41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36" t="s">
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG41" s="37" t="s">
+      <c r="AH41" s="37" t="s">
         <v>586</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AI41" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>67</v>
       </c>
@@ -8846,27 +8976,30 @@
       <c r="AA42" s="33">
         <v>1</v>
       </c>
-      <c r="AB42" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="36" t="s">
+      <c r="AB42" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD42" s="36" t="s">
+      <c r="AE42" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36" t="s">
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG42" s="37" t="s">
+      <c r="AH42" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="AH42" t="s">
+      <c r="AI42" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
         <v>69</v>
       </c>
@@ -8945,25 +9078,28 @@
       <c r="AA43" s="33">
         <v>2</v>
       </c>
-      <c r="AB43" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="36" t="s">
+      <c r="AB43" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD43" s="36" t="s">
+      <c r="AE43" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36" t="s">
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG43" s="37"/>
-      <c r="AH43" t="s">
+      <c r="AH43" s="37"/>
+      <c r="AI43" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" s="33" t="s">
         <v>68</v>
       </c>
@@ -9042,27 +9178,30 @@
       <c r="AA44" s="33">
         <v>2</v>
       </c>
-      <c r="AB44" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="36" t="s">
+      <c r="AB44" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD44" s="36" t="s">
+      <c r="AE44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AE44" s="36"/>
-      <c r="AF44" s="36" t="s">
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG44" s="37" t="s">
+      <c r="AH44" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AI44" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" s="33" t="s">
         <v>70</v>
       </c>
@@ -9141,27 +9280,30 @@
       <c r="AA45" s="33">
         <v>3</v>
       </c>
-      <c r="AB45" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="36" t="s">
+      <c r="AB45" s="33">
+        <v>16</v>
+      </c>
+      <c r="AC45" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD45" s="36" t="s">
+      <c r="AE45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36" t="s">
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG45" s="37" t="s">
+      <c r="AH45" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="AH45" t="s">
+      <c r="AI45" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" s="33" t="s">
         <v>120</v>
       </c>
@@ -9240,23 +9382,26 @@
       <c r="AA46" s="33">
         <v>2</v>
       </c>
-      <c r="AB46" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="36" t="s">
+      <c r="AB46" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD46" s="36" t="s">
+      <c r="AE46" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE46" s="36"/>
       <c r="AF46" s="36"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" t="s">
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" s="33" t="s">
         <v>87</v>
       </c>
@@ -9335,23 +9480,26 @@
       <c r="AA47" s="33">
         <v>1</v>
       </c>
-      <c r="AB47" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="36" t="s">
+      <c r="AB47" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC47" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD47" s="36" t="s">
+      <c r="AE47" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE47" s="36"/>
       <c r="AF47" s="36"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" t="s">
+      <c r="AG47" s="36"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
@@ -9430,23 +9578,26 @@
       <c r="AA48" s="33">
         <v>2</v>
       </c>
-      <c r="AB48" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="36" t="s">
+      <c r="AB48" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC48" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD48" s="36" t="s">
+      <c r="AE48" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE48" s="36"/>
       <c r="AF48" s="36"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" t="s">
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>89</v>
       </c>
@@ -9525,23 +9676,26 @@
       <c r="AA49" s="33">
         <v>2</v>
       </c>
-      <c r="AB49" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="36" t="s">
+      <c r="AB49" s="33">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD49" s="36" t="s">
+      <c r="AE49" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE49" s="36"/>
       <c r="AF49" s="36"/>
-      <c r="AG49" s="37"/>
-      <c r="AH49" t="s">
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" s="33" t="s">
         <v>90</v>
       </c>
@@ -9620,23 +9774,26 @@
       <c r="AA50" s="33">
         <v>2</v>
       </c>
-      <c r="AB50" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="36" t="s">
+      <c r="AB50" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD50" s="36" t="s">
+      <c r="AE50" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE50" s="36"/>
       <c r="AF50" s="36"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" t="s">
+      <c r="AG50" s="36"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" s="33" t="s">
         <v>88</v>
       </c>
@@ -9715,23 +9872,26 @@
       <c r="AA51" s="33">
         <v>2</v>
       </c>
-      <c r="AB51" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="36" t="s">
+      <c r="AB51" s="33">
+        <v>15</v>
+      </c>
+      <c r="AC51" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD51" s="36" t="s">
+      <c r="AE51" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="AE51" s="36"/>
       <c r="AF51" s="36"/>
-      <c r="AG51" s="37"/>
-      <c r="AH51" t="s">
+      <c r="AG51" s="36"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
         <v>85</v>
       </c>
@@ -9810,25 +9970,28 @@
       <c r="AA52" s="33">
         <v>2</v>
       </c>
-      <c r="AB52" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="36" t="s">
+      <c r="AB52" s="33">
+        <v>24</v>
+      </c>
+      <c r="AC52" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD52" s="36" t="s">
+      <c r="AE52" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE52" s="36"/>
       <c r="AF52" s="36"/>
-      <c r="AG52" s="37" t="s">
+      <c r="AG52" s="36"/>
+      <c r="AH52" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="AH52" t="s">
+      <c r="AI52" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
         <v>375</v>
       </c>
@@ -9897,19 +10060,22 @@
       <c r="AA53" s="33">
         <v>1</v>
       </c>
-      <c r="AB53" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="36"/>
+      <c r="AB53" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC53" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="AD53" s="36"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="36"/>
-      <c r="AG53" s="37"/>
-      <c r="AH53" t="s">
+      <c r="AG53" s="36"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" s="33" t="s">
         <v>86</v>
       </c>
@@ -9988,25 +10154,28 @@
       <c r="AA54" s="33">
         <v>2</v>
       </c>
-      <c r="AB54" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="36" t="s">
+      <c r="AB54" s="33">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD54" s="36" t="s">
+      <c r="AE54" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE54" s="36"/>
       <c r="AF54" s="36"/>
-      <c r="AG54" s="37" t="s">
+      <c r="AG54" s="36"/>
+      <c r="AH54" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="AH54" t="s">
+      <c r="AI54" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>122</v>
       </c>
@@ -10085,27 +10254,30 @@
       <c r="AA55" s="33">
         <v>2</v>
       </c>
-      <c r="AB55" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="36" t="s">
+      <c r="AB55" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC55" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD55" s="36" t="s">
+      <c r="AE55" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36" t="s">
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="AG55" s="37" t="s">
+      <c r="AH55" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="AH55" t="s">
+      <c r="AI55" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" s="33" t="s">
         <v>121</v>
       </c>
@@ -10184,25 +10356,28 @@
       <c r="AA56" s="33">
         <v>2</v>
       </c>
-      <c r="AB56" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="36" t="s">
+      <c r="AB56" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC56" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD56" s="36" t="s">
+      <c r="AE56" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE56" s="36" t="s">
+      <c r="AF56" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="AF56" s="36"/>
-      <c r="AG56" s="37"/>
-      <c r="AH56" t="s">
+      <c r="AG56" s="36"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
         <v>101</v>
       </c>
@@ -10281,23 +10456,26 @@
       <c r="AA57" s="33">
         <v>3</v>
       </c>
-      <c r="AB57" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="36" t="s">
+      <c r="AB57" s="33">
+        <v>9</v>
+      </c>
+      <c r="AC57" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD57" s="36" t="s">
+      <c r="AE57" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE57" s="36"/>
       <c r="AF57" s="36"/>
-      <c r="AG57" s="37"/>
-      <c r="AH57" t="s">
+      <c r="AG57" s="36"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
         <v>102</v>
       </c>
@@ -10376,25 +10554,28 @@
       <c r="AA58" s="33">
         <v>2</v>
       </c>
-      <c r="AB58" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="36" t="s">
+      <c r="AB58" s="33">
+        <v>12</v>
+      </c>
+      <c r="AC58" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD58" s="36" t="s">
+      <c r="AE58" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE58" s="36" t="s">
+      <c r="AF58" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="37"/>
-      <c r="AH58" t="s">
+      <c r="AG58" s="36"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>105</v>
       </c>
@@ -10473,25 +10654,28 @@
       <c r="AA59" s="33">
         <v>2</v>
       </c>
-      <c r="AB59" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="36" t="s">
+      <c r="AB59" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC59" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD59" s="36" t="s">
+      <c r="AE59" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE59" s="36" t="s">
+      <c r="AF59" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF59" s="36"/>
-      <c r="AG59" s="37"/>
-      <c r="AH59" t="s">
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" s="33" t="s">
         <v>395</v>
       </c>
@@ -10562,19 +10746,22 @@
       <c r="AA60" s="33">
         <v>1</v>
       </c>
-      <c r="AB60" s="34" t="b">
+      <c r="AB60" s="33">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC60" s="36"/>
       <c r="AD60" s="36"/>
       <c r="AE60" s="36"/>
       <c r="AF60" s="36"/>
-      <c r="AG60" s="37"/>
-      <c r="AH60" t="s">
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="37"/>
+      <c r="AI60" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
         <v>398</v>
       </c>
@@ -10645,19 +10832,22 @@
       <c r="AA61" s="33">
         <v>1</v>
       </c>
-      <c r="AB61" s="34" t="b">
+      <c r="AB61" s="33">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC61" s="36"/>
       <c r="AD61" s="36"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
-      <c r="AG61" s="37"/>
-      <c r="AH61" t="s">
+      <c r="AG61" s="36"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" s="33" t="s">
         <v>402</v>
       </c>
@@ -10728,19 +10918,22 @@
       <c r="AA62" s="33">
         <v>1</v>
       </c>
-      <c r="AB62" s="34" t="b">
+      <c r="AB62" s="33">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC62" s="36"/>
       <c r="AD62" s="36"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
-      <c r="AG62" s="37"/>
-      <c r="AH62" t="s">
+      <c r="AG62" s="36"/>
+      <c r="AH62" s="37"/>
+      <c r="AI62" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" s="33" t="s">
         <v>107</v>
       </c>
@@ -10819,25 +11012,28 @@
       <c r="AA63" s="33">
         <v>3</v>
       </c>
-      <c r="AB63" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="36" t="s">
+      <c r="AB63" s="33">
+        <v>5</v>
+      </c>
+      <c r="AC63" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD63" s="36" t="s">
+      <c r="AE63" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE63" s="36" t="s">
+      <c r="AF63" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF63" s="36"/>
-      <c r="AG63" s="37"/>
-      <c r="AH63" t="s">
+      <c r="AG63" s="36"/>
+      <c r="AH63" s="37"/>
+      <c r="AI63" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
         <v>408</v>
       </c>
@@ -10906,19 +11102,22 @@
       <c r="AA64" s="33">
         <v>1</v>
       </c>
-      <c r="AB64" s="34" t="b">
+      <c r="AB64" s="33">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC64" s="36"/>
       <c r="AD64" s="36"/>
       <c r="AE64" s="36"/>
       <c r="AF64" s="36"/>
-      <c r="AG64" s="37"/>
-      <c r="AH64" t="s">
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="37"/>
+      <c r="AI64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
         <v>106</v>
       </c>
@@ -10997,25 +11196,28 @@
       <c r="AA65" s="33">
         <v>2</v>
       </c>
-      <c r="AB65" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="36" t="s">
+      <c r="AB65" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC65" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD65" s="36" t="s">
+      <c r="AE65" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE65" s="36" t="s">
+      <c r="AF65" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF65" s="36"/>
-      <c r="AG65" s="37"/>
-      <c r="AH65" t="s">
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="37"/>
+      <c r="AI65" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>108</v>
       </c>
@@ -11094,23 +11296,26 @@
       <c r="AA66" s="33">
         <v>3</v>
       </c>
-      <c r="AB66" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="36" t="s">
+      <c r="AB66" s="33">
+        <v>9</v>
+      </c>
+      <c r="AC66" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD66" s="36" t="s">
+      <c r="AE66" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE66" s="36"/>
       <c r="AF66" s="36"/>
-      <c r="AG66" s="37"/>
-      <c r="AH66" t="s">
+      <c r="AG66" s="36"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
         <v>109</v>
       </c>
@@ -11189,25 +11394,28 @@
       <c r="AA67" s="33">
         <v>2</v>
       </c>
-      <c r="AB67" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="36" t="s">
+      <c r="AB67" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC67" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD67" s="36" t="s">
+      <c r="AE67" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE67" s="36" t="s">
+      <c r="AF67" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF67" s="36"/>
-      <c r="AG67" s="37"/>
-      <c r="AH67" t="s">
+      <c r="AG67" s="36"/>
+      <c r="AH67" s="37"/>
+      <c r="AI67" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
         <v>110</v>
       </c>
@@ -11286,23 +11494,26 @@
       <c r="AA68" s="33">
         <v>3</v>
       </c>
-      <c r="AB68" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="36" t="s">
+      <c r="AB68" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC68" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD68" s="36" t="s">
+      <c r="AE68" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE68" s="36"/>
       <c r="AF68" s="36"/>
-      <c r="AG68" s="37"/>
-      <c r="AH68" t="s">
+      <c r="AG68" s="36"/>
+      <c r="AH68" s="37"/>
+      <c r="AI68" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
         <v>424</v>
       </c>
@@ -11373,19 +11584,22 @@
       <c r="AA69" s="33">
         <v>1</v>
       </c>
-      <c r="AB69" s="34" t="b">
+      <c r="AB69" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC69" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC69" s="36"/>
       <c r="AD69" s="36"/>
       <c r="AE69" s="36"/>
       <c r="AF69" s="36"/>
-      <c r="AG69" s="37"/>
-      <c r="AH69" t="s">
+      <c r="AG69" s="36"/>
+      <c r="AH69" s="37"/>
+      <c r="AI69" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" s="33" t="s">
         <v>104</v>
       </c>
@@ -11464,25 +11678,28 @@
       <c r="AA70" s="33">
         <v>2</v>
       </c>
-      <c r="AB70" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="36" t="s">
+      <c r="AB70" s="33">
+        <v>10</v>
+      </c>
+      <c r="AC70" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD70" s="36" t="s">
+      <c r="AE70" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE70" s="36" t="s">
+      <c r="AF70" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF70" s="36"/>
-      <c r="AG70" s="37"/>
-      <c r="AH70" t="s">
+      <c r="AG70" s="36"/>
+      <c r="AH70" s="37"/>
+      <c r="AI70" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
         <v>103</v>
       </c>
@@ -11561,25 +11778,28 @@
       <c r="AA71" s="33">
         <v>2</v>
       </c>
-      <c r="AB71" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="36" t="s">
+      <c r="AB71" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC71" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD71" s="36" t="s">
+      <c r="AE71" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE71" s="36" t="s">
+      <c r="AF71" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF71" s="36"/>
-      <c r="AG71" s="37"/>
-      <c r="AH71" t="s">
+      <c r="AG71" s="36"/>
+      <c r="AH71" s="37"/>
+      <c r="AI71" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
         <v>111</v>
       </c>
@@ -11658,25 +11878,28 @@
       <c r="AA72" s="33">
         <v>2</v>
       </c>
-      <c r="AB72" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="36" t="s">
+      <c r="AB72" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD72" s="36" t="s">
+      <c r="AE72" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE72" s="36" t="s">
+      <c r="AF72" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF72" s="36"/>
-      <c r="AG72" s="37"/>
-      <c r="AH72" t="s">
+      <c r="AG72" s="36"/>
+      <c r="AH72" s="37"/>
+      <c r="AI72" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
         <v>112</v>
       </c>
@@ -11755,23 +11978,26 @@
       <c r="AA73" s="33">
         <v>2</v>
       </c>
-      <c r="AB73" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="36" t="s">
+      <c r="AB73" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC73" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD73" s="36" t="s">
+      <c r="AE73" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE73" s="36"/>
       <c r="AF73" s="36"/>
-      <c r="AG73" s="37"/>
-      <c r="AH73" t="s">
+      <c r="AG73" s="36"/>
+      <c r="AH73" s="37"/>
+      <c r="AI73" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" s="33" t="s">
         <v>113</v>
       </c>
@@ -11850,25 +12076,28 @@
       <c r="AA74" s="33">
         <v>3</v>
       </c>
-      <c r="AB74" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="36" t="s">
+      <c r="AB74" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC74" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD74" s="36" t="s">
+      <c r="AE74" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE74" s="36" t="s">
+      <c r="AF74" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF74" s="36"/>
-      <c r="AG74" s="37"/>
-      <c r="AH74" t="s">
+      <c r="AG74" s="36"/>
+      <c r="AH74" s="37"/>
+      <c r="AI74" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>114</v>
       </c>
@@ -11947,23 +12176,26 @@
       <c r="AA75" s="33">
         <v>3</v>
       </c>
-      <c r="AB75" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="36" t="s">
+      <c r="AB75" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC75" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD75" s="36" t="s">
+      <c r="AE75" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE75" s="36"/>
       <c r="AF75" s="36"/>
-      <c r="AG75" s="37"/>
-      <c r="AH75" t="s">
+      <c r="AG75" s="36"/>
+      <c r="AH75" s="37"/>
+      <c r="AI75" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="s">
         <v>445</v>
       </c>
@@ -12032,19 +12264,22 @@
       <c r="AA76" s="33">
         <v>2</v>
       </c>
-      <c r="AB76" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC76" s="36"/>
+      <c r="AB76" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC76" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="AD76" s="36"/>
       <c r="AE76" s="36"/>
       <c r="AF76" s="36"/>
-      <c r="AG76" s="37"/>
-      <c r="AH76" t="s">
+      <c r="AG76" s="36"/>
+      <c r="AH76" s="37"/>
+      <c r="AI76" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
         <v>115</v>
       </c>
@@ -12123,25 +12358,28 @@
       <c r="AA77" s="33">
         <v>3</v>
       </c>
-      <c r="AB77" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC77" s="36" t="s">
+      <c r="AB77" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC77" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD77" s="36" t="s">
+      <c r="AE77" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE77" s="36" t="s">
+      <c r="AF77" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF77" s="36"/>
-      <c r="AG77" s="37"/>
-      <c r="AH77" t="s">
+      <c r="AG77" s="36"/>
+      <c r="AH77" s="37"/>
+      <c r="AI77" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
         <v>116</v>
       </c>
@@ -12220,23 +12458,26 @@
       <c r="AA78" s="33">
         <v>3</v>
       </c>
-      <c r="AB78" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="36" t="s">
+      <c r="AB78" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC78" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD78" s="36" t="s">
+      <c r="AE78" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE78" s="36"/>
       <c r="AF78" s="36"/>
-      <c r="AG78" s="37"/>
-      <c r="AH78" t="s">
+      <c r="AG78" s="36"/>
+      <c r="AH78" s="37"/>
+      <c r="AI78" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
         <v>117</v>
       </c>
@@ -12315,23 +12556,26 @@
       <c r="AA79" s="33">
         <v>2</v>
       </c>
-      <c r="AB79" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC79" s="36" t="s">
+      <c r="AB79" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC79" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD79" s="36" t="s">
+      <c r="AE79" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE79" s="36"/>
       <c r="AF79" s="36"/>
-      <c r="AG79" s="37"/>
-      <c r="AH79" t="s">
+      <c r="AG79" s="36"/>
+      <c r="AH79" s="37"/>
+      <c r="AI79" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
         <v>118</v>
       </c>
@@ -12410,25 +12654,28 @@
       <c r="AA80" s="33">
         <v>2</v>
       </c>
-      <c r="AB80" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="36" t="s">
+      <c r="AB80" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC80" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD80" s="36" t="s">
+      <c r="AE80" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE80" s="36" t="s">
+      <c r="AF80" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF80" s="36"/>
-      <c r="AG80" s="37"/>
-      <c r="AH80" t="s">
+      <c r="AG80" s="36"/>
+      <c r="AH80" s="37"/>
+      <c r="AI80" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" s="33" t="s">
         <v>119</v>
       </c>
@@ -12507,25 +12754,28 @@
       <c r="AA81" s="33">
         <v>3</v>
       </c>
-      <c r="AB81" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC81" s="36" t="s">
+      <c r="AB81" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC81" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD81" s="36" t="s">
+      <c r="AE81" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE81" s="36" t="s">
+      <c r="AF81" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="AF81" s="36"/>
-      <c r="AG81" s="37"/>
-      <c r="AH81" t="s">
+      <c r="AG81" s="36"/>
+      <c r="AH81" s="37"/>
+      <c r="AI81" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
         <v>462</v>
       </c>
@@ -12594,19 +12844,22 @@
       <c r="AA82" s="33">
         <v>6</v>
       </c>
-      <c r="AB82" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC82" s="36"/>
+      <c r="AB82" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC82" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="AD82" s="36"/>
       <c r="AE82" s="36"/>
       <c r="AF82" s="36"/>
-      <c r="AG82" s="37"/>
-      <c r="AH82" t="s">
+      <c r="AG82" s="36"/>
+      <c r="AH82" s="37"/>
+      <c r="AI82" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>123</v>
       </c>
@@ -12685,23 +12938,26 @@
       <c r="AA83" s="33">
         <v>1</v>
       </c>
-      <c r="AB83" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC83" s="36" t="s">
+      <c r="AB83" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC83" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD83" s="36" t="s">
+      <c r="AE83" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE83" s="36"/>
       <c r="AF83" s="36"/>
-      <c r="AG83" s="37"/>
-      <c r="AH83" t="s">
+      <c r="AG83" s="36"/>
+      <c r="AH83" s="37"/>
+      <c r="AI83" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" s="33" t="s">
         <v>124</v>
       </c>
@@ -12780,25 +13036,28 @@
       <c r="AA84" s="33">
         <v>1</v>
       </c>
-      <c r="AB84" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="36" t="s">
+      <c r="AB84" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC84" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD84" s="36" t="s">
+      <c r="AE84" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE84" s="36"/>
       <c r="AF84" s="36"/>
-      <c r="AG84" s="37" t="s">
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="AH84" t="s">
+      <c r="AI84" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>125</v>
       </c>
@@ -12877,27 +13136,30 @@
       <c r="AA85" s="33">
         <v>2</v>
       </c>
-      <c r="AB85" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="36" t="s">
+      <c r="AB85" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC85" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD85" s="36" t="s">
+      <c r="AE85" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE85" s="36" t="s">
+      <c r="AF85" s="36" t="s">
         <v>606</v>
       </c>
-      <c r="AF85" s="36" t="s">
+      <c r="AG85" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="AG85" s="37"/>
-      <c r="AH85" t="s">
+      <c r="AH85" s="37"/>
+      <c r="AI85" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" s="33" t="s">
         <v>475</v>
       </c>
@@ -12966,19 +13228,22 @@
       <c r="AA86" s="33">
         <v>2</v>
       </c>
-      <c r="AB86" s="34" t="b">
+      <c r="AB86" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC86" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC86" s="36"/>
       <c r="AD86" s="36"/>
       <c r="AE86" s="36"/>
       <c r="AF86" s="36"/>
-      <c r="AG86" s="37"/>
-      <c r="AH86" t="s">
+      <c r="AG86" s="36"/>
+      <c r="AH86" s="37"/>
+      <c r="AI86" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>126</v>
       </c>
@@ -13057,23 +13322,26 @@
       <c r="AA87" s="33">
         <v>2</v>
       </c>
-      <c r="AB87" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC87" s="36" t="s">
+      <c r="AB87" s="33">
+        <v>13</v>
+      </c>
+      <c r="AC87" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD87" s="36" t="s">
+      <c r="AE87" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE87" s="36"/>
       <c r="AF87" s="36"/>
-      <c r="AG87" s="37"/>
-      <c r="AH87" t="s">
+      <c r="AG87" s="36"/>
+      <c r="AH87" s="37"/>
+      <c r="AI87" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" s="33" t="s">
         <v>127</v>
       </c>
@@ -13152,23 +13420,26 @@
       <c r="AA88" s="33">
         <v>2</v>
       </c>
-      <c r="AB88" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC88" s="36" t="s">
+      <c r="AB88" s="33">
+        <v>8</v>
+      </c>
+      <c r="AC88" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD88" s="36" t="s">
+      <c r="AE88" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE88" s="36"/>
       <c r="AF88" s="36"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" t="s">
+      <c r="AG88" s="36"/>
+      <c r="AH88" s="37"/>
+      <c r="AI88" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>128</v>
       </c>
@@ -13247,25 +13518,28 @@
       <c r="AA89" s="33">
         <v>1</v>
       </c>
-      <c r="AB89" s="34" t="b">
+      <c r="AB89" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC89" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="AC89" s="36" t="s">
+      <c r="AD89" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD89" s="36" t="s">
+      <c r="AE89" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE89" s="36"/>
-      <c r="AF89" s="36" t="s">
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="36" t="s">
         <v>608</v>
       </c>
-      <c r="AG89" s="37"/>
-      <c r="AH89" t="s">
+      <c r="AH89" s="37"/>
+      <c r="AI89" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
         <v>74</v>
       </c>
@@ -13344,25 +13618,28 @@
       <c r="AA90" s="33">
         <v>2</v>
       </c>
-      <c r="AB90" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC90" s="36" t="s">
+      <c r="AB90" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC90" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD90" s="36" t="s">
+      <c r="AE90" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE90" s="36"/>
-      <c r="AF90" s="36" t="s">
+      <c r="AF90" s="36"/>
+      <c r="AG90" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="AG90" s="37"/>
-      <c r="AH90" t="s">
+      <c r="AH90" s="37"/>
+      <c r="AI90" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
         <v>83</v>
       </c>
@@ -13441,25 +13718,28 @@
       <c r="AA91" s="33">
         <v>2</v>
       </c>
-      <c r="AB91" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC91" s="36" t="s">
+      <c r="AB91" s="33">
+        <v>7</v>
+      </c>
+      <c r="AC91" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD91" s="36" t="s">
+      <c r="AE91" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36" t="s">
+      <c r="AF91" s="36"/>
+      <c r="AG91" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG91" s="37"/>
-      <c r="AH91" s="36" t="s">
+      <c r="AH91" s="37"/>
+      <c r="AI91" s="36" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
         <v>75</v>
       </c>
@@ -13538,25 +13818,28 @@
       <c r="AA92" s="33">
         <v>1</v>
       </c>
-      <c r="AB92" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="36" t="s">
+      <c r="AB92" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC92" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD92" s="36" t="s">
+      <c r="AE92" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE92" s="36"/>
-      <c r="AF92" s="36" t="s">
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG92" s="37"/>
-      <c r="AH92" t="s">
+      <c r="AH92" s="37"/>
+      <c r="AI92" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
         <v>76</v>
       </c>
@@ -13635,25 +13918,28 @@
       <c r="AA93" s="33">
         <v>1</v>
       </c>
-      <c r="AB93" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC93" s="36" t="s">
+      <c r="AB93" s="33">
+        <v>5</v>
+      </c>
+      <c r="AC93" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="AD93" s="36" t="s">
+      <c r="AE93" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="AE93" s="36"/>
-      <c r="AF93" s="36" t="s">
+      <c r="AF93" s="36"/>
+      <c r="AG93" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG93" s="37"/>
-      <c r="AH93" t="s">
+      <c r="AH93" s="37"/>
+      <c r="AI93" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
         <v>77</v>
       </c>
@@ -13732,25 +14018,28 @@
       <c r="AA94" s="33">
         <v>2</v>
       </c>
-      <c r="AB94" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC94" s="36" t="s">
+      <c r="AB94" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC94" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD94" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD94" s="36" t="s">
+      <c r="AE94" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE94" s="36"/>
-      <c r="AF94" s="36" t="s">
+      <c r="AF94" s="36"/>
+      <c r="AG94" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="AG94" s="37"/>
-      <c r="AH94" t="s">
+      <c r="AH94" s="37"/>
+      <c r="AI94" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
         <v>499</v>
       </c>
@@ -13821,19 +14110,22 @@
       <c r="AA95" s="33">
         <v>2</v>
       </c>
-      <c r="AB95" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC95" s="36"/>
+      <c r="AB95" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC95" s="34" t="b">
+        <v>1</v>
+      </c>
       <c r="AD95" s="36"/>
       <c r="AE95" s="36"/>
       <c r="AF95" s="36"/>
-      <c r="AG95" s="37"/>
-      <c r="AH95" t="s">
+      <c r="AG95" s="36"/>
+      <c r="AH95" s="37"/>
+      <c r="AI95" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" s="33" t="s">
         <v>78</v>
       </c>
@@ -13912,25 +14204,28 @@
       <c r="AA96" s="33">
         <v>2</v>
       </c>
-      <c r="AB96" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC96" s="36" t="s">
+      <c r="AB96" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC96" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD96" s="36" t="s">
+      <c r="AE96" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE96" s="36"/>
-      <c r="AF96" s="36" t="s">
+      <c r="AF96" s="36"/>
+      <c r="AG96" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="AG96" s="37"/>
-      <c r="AH96" t="s">
+      <c r="AH96" s="37"/>
+      <c r="AI96" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" s="33" t="s">
         <v>79</v>
       </c>
@@ -14009,25 +14304,28 @@
       <c r="AA97" s="33">
         <v>2</v>
       </c>
-      <c r="AB97" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC97" s="36" t="s">
+      <c r="AB97" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC97" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="AD97" s="36" t="s">
+      <c r="AE97" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE97" s="36"/>
-      <c r="AF97" s="36" t="s">
+      <c r="AF97" s="36"/>
+      <c r="AG97" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG97" s="37"/>
-      <c r="AH97" t="s">
+      <c r="AH97" s="37"/>
+      <c r="AI97" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" s="33" t="s">
         <v>80</v>
       </c>
@@ -14106,25 +14404,28 @@
       <c r="AA98" s="33">
         <v>2</v>
       </c>
-      <c r="AB98" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC98" s="36" t="s">
+      <c r="AB98" s="33">
+        <v>2</v>
+      </c>
+      <c r="AC98" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD98" s="36" t="s">
+      <c r="AE98" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE98" s="36"/>
-      <c r="AF98" s="36" t="s">
+      <c r="AF98" s="36"/>
+      <c r="AG98" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="AG98" s="37"/>
-      <c r="AH98" t="s">
+      <c r="AH98" s="37"/>
+      <c r="AI98" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" s="33" t="s">
         <v>81</v>
       </c>
@@ -14203,25 +14504,28 @@
       <c r="AA99" s="33">
         <v>2</v>
       </c>
-      <c r="AB99" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="36" t="s">
+      <c r="AB99" s="33">
+        <v>4</v>
+      </c>
+      <c r="AC99" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD99" s="36" t="s">
+      <c r="AE99" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE99" s="36"/>
-      <c r="AF99" s="36" t="s">
+      <c r="AF99" s="36"/>
+      <c r="AG99" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="AG99" s="37"/>
-      <c r="AH99" t="s">
+      <c r="AH99" s="37"/>
+      <c r="AI99" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" s="33" t="s">
         <v>82</v>
       </c>
@@ -14300,27 +14604,30 @@
       <c r="AA100" s="33">
         <v>2</v>
       </c>
-      <c r="AB100" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC100" s="36" t="s">
+      <c r="AB100" s="33">
+        <v>6</v>
+      </c>
+      <c r="AC100" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD100" s="36" t="s">
+      <c r="AE100" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE100" s="36"/>
-      <c r="AF100" s="36" t="s">
+      <c r="AF100" s="36"/>
+      <c r="AG100" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AG100" s="37" t="s">
+      <c r="AH100" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="AH100" t="s">
+      <c r="AI100" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" s="33" t="s">
         <v>84</v>
       </c>
@@ -14399,23 +14706,26 @@
       <c r="AA101" s="33">
         <v>2</v>
       </c>
-      <c r="AB101" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC101" s="36" t="s">
+      <c r="AB101" s="33">
+        <v>8</v>
+      </c>
+      <c r="AC101" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD101" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="AD101" s="36" t="s">
+      <c r="AE101" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="AE101" s="36"/>
-      <c r="AF101" s="36" t="s">
+      <c r="AF101" s="36"/>
+      <c r="AG101" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AG101" s="37" t="s">
+      <c r="AH101" s="37" t="s">
         <v>628</v>
       </c>
-      <c r="AH101" t="s">
+      <c r="AI101" t="s">
         <v>519</v>
       </c>
     </row>
@@ -14430,7 +14740,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/Snake River IPTDS Prioritization 20230606.xlsx
+++ b/docs/Snake River IPTDS Prioritization 20230606.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E3034A-88D8-4FDD-96A6-1A522C94A52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1145E2E-AA49-4F04-AAF0-663DBE5C387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-2385" windowWidth="25800" windowHeight="21150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2505" windowWidth="51840" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -4808,11 +4808,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4554933-5C62-409C-B1F4-87485B7250BD}">
   <dimension ref="A1:AI101"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="AI94" sqref="AI94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14739,7 +14739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B48E5-B2D0-4B19-967E-72BE4D4B4F25}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
